--- a/xlsx/なのはサントラBOXカラオケ.xlsx
+++ b/xlsx/なのはサントラBOXカラオケ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd24728742b93f64/Repositories/nanoha_karaoke_search/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1044" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5E9852A-139A-6046-8197-AD48410D35E6}"/>
+  <xr:revisionPtr revIDLastSave="1097" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{932A5D2E-BF19-6A4C-99E1-F453DF0F8275}"/>
   <bookViews>
-    <workbookView xWindow="26860" yWindow="15860" windowWidth="26880" windowHeight="15620" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
+    <workbookView xWindow="26860" yWindow="15860" windowWidth="26880" windowHeight="15620" activeTab="3" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
   </bookViews>
   <sheets>
     <sheet name="機種名" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="json base" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="356">
   <si>
     <t>Precious time</t>
   </si>
@@ -646,39 +647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100011111110000000000000000</t>
-  </si>
-  <si>
-    <t>101011111110000000000000000</t>
-  </si>
-  <si>
-    <t>000100000000000000000000000</t>
-  </si>
-  <si>
-    <t>101000011110101000000000000</t>
-  </si>
-  <si>
-    <t>101000011110111000000000000</t>
-  </si>
-  <si>
-    <t>101001111110000000000000000</t>
-  </si>
-  <si>
-    <t>000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>101001111110111000000000000</t>
-  </si>
-  <si>
-    <t>100000111110101000000000000</t>
-  </si>
-  <si>
-    <t>100001111111111000000000000</t>
-  </si>
-  <si>
-    <t>100000011110111000000000000</t>
-  </si>
-  <si>
     <t>&lt;br&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -794,24 +762,6 @@
     <t>https://www.joysound.com/web/search/song/793589</t>
   </si>
   <si>
-    <t>010000000000000111111001000</t>
-  </si>
-  <si>
-    <t>010000000000000111110011001</t>
-  </si>
-  <si>
-    <t>010000000000000111110011000</t>
-  </si>
-  <si>
-    <t>010000000000000111110001000</t>
-  </si>
-  <si>
-    <t>010000000000000111111111111</t>
-  </si>
-  <si>
-    <t>010000000000000011110001000</t>
-  </si>
-  <si>
     <t>https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4563991</t>
   </si>
   <si>
@@ -1275,15 +1225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100001111110001000000000000</t>
-  </si>
-  <si>
-    <t>010000000000000111111011001</t>
-  </si>
-  <si>
-    <t>010000000000000111111000001</t>
-  </si>
-  <si>
     <t>Precious time?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1292,13 +1233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>010000000000000111111011000</t>
-  </si>
-  <si>
-    <t>000100000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1310,9 +1244,6 @@
     <t>{"song_name": "</t>
   </si>
   <si>
-    <t>,use": "</t>
-  </si>
-  <si>
     <t>"}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1335,6 +1266,92 @@
   <si>
     <t>{"song_name": "</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭用JOYSOUND</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カテイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭用JOY</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カテイヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000011111110000000000000000</t>
+  </si>
+  <si>
+    <t>1001011111110000000000000000</t>
+  </si>
+  <si>
+    <t>1011011111110000000000000000</t>
+  </si>
+  <si>
+    <t>1010011111110000000000000000</t>
+  </si>
+  <si>
+    <t>0000100000000000000000000000</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1001000011110101000000000000</t>
+  </si>
+  <si>
+    <t>1001000011110111000000000000</t>
+  </si>
+  <si>
+    <t>1011001111110000000000000000</t>
+  </si>
+  <si>
+    <t>1010001111110001000000000000</t>
+  </si>
+  <si>
+    <t>1011001111110111000000000000</t>
+  </si>
+  <si>
+    <t>1000000111110101000000000000</t>
+  </si>
+  <si>
+    <t>1000001111111111000000000000</t>
+  </si>
+  <si>
+    <t>1000000011110111000000000000</t>
+  </si>
+  <si>
+    <t>1010000011110111000000000000</t>
+  </si>
+  <si>
+    <t>0100000000000000111111011000</t>
+  </si>
+  <si>
+    <t>0100000000000000111110011001</t>
+  </si>
+  <si>
+    <t>0100000000000000111111001000</t>
+  </si>
+  <si>
+    <t>0100000000000000111110011000</t>
+  </si>
+  <si>
+    <t>0100000000000000111111011001</t>
+  </si>
+  <si>
+    <t>0100000000000000111110001000</t>
+  </si>
+  <si>
+    <t>0100000000000000111111000001</t>
+  </si>
+  <si>
+    <t>0100000000000000111111111111</t>
+  </si>
+  <si>
+    <t>0100000000000000011110001000</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713682E8-316B-4E9C-BDA7-42C9061D86A7}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -1792,195 +1811,200 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1999,17 +2023,18 @@
   <dimension ref="A1:AK152"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC80" sqref="C80:AC152"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -2028,78 +2053,81 @@
         <v>64</v>
       </c>
       <c r="E2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>93</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>95</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>96</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>99</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>101</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>75</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>76</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>78</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>73</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>74</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2116,14 +2144,14 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -2144,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="7">
         <v>0</v>
@@ -2155,7 +2183,7 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="7">
         <v>0</v>
       </c>
       <c r="S3" s="2">
@@ -2189,6 +2217,9 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
@@ -2214,14 +2245,14 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2242,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7">
         <v>0</v>
@@ -2253,7 +2284,7 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="7">
         <v>0</v>
       </c>
       <c r="S4" s="2">
@@ -2287,6 +2318,9 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
         <v>0</v>
       </c>
       <c r="AG4" t="s">
@@ -2315,14 +2349,14 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2343,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
         <v>0</v>
@@ -2354,7 +2388,7 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="7">
         <v>0</v>
       </c>
       <c r="S5" s="2">
@@ -2388,6 +2422,9 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2401,14 +2438,14 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2429,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
         <v>0</v>
@@ -2440,7 +2477,7 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="7">
         <v>0</v>
       </c>
       <c r="S6" s="2">
@@ -2474,6 +2511,9 @@
         <v>0</v>
       </c>
       <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2487,14 +2527,14 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
+      <c r="G7" s="2">
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2515,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="7">
         <v>0</v>
@@ -2526,7 +2566,7 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="7">
         <v>0</v>
       </c>
       <c r="S7" s="2">
@@ -2560,6 +2600,9 @@
         <v>0</v>
       </c>
       <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2573,14 +2616,14 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2601,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
         <v>0</v>
@@ -2612,7 +2655,7 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="7">
         <v>0</v>
       </c>
       <c r="S8" s="2">
@@ -2646,6 +2689,9 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2659,14 +2705,14 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
+      <c r="E9" s="7">
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
+      <c r="G9" s="2">
+        <v>0</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2687,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7">
         <v>0</v>
@@ -2698,7 +2744,7 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="7">
         <v>0</v>
       </c>
       <c r="S9" s="2">
@@ -2732,6 +2778,9 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2745,14 +2794,14 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
+      <c r="G10" s="2">
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2773,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7">
         <v>0</v>
@@ -2784,7 +2833,7 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="7">
         <v>0</v>
       </c>
       <c r="S10" s="2">
@@ -2818,6 +2867,9 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2831,14 +2883,14 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2859,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <v>0</v>
@@ -2870,7 +2922,7 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="7">
         <v>0</v>
       </c>
       <c r="S11" s="2">
@@ -2904,6 +2956,9 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2917,14 +2972,14 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
+      <c r="E12" s="7">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
+      <c r="G12" s="2">
+        <v>0</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2945,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="7">
         <v>0</v>
@@ -2956,7 +3011,7 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="7">
         <v>0</v>
       </c>
       <c r="S12" s="2">
@@ -2990,6 +3045,9 @@
         <v>0</v>
       </c>
       <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3003,14 +3061,14 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3031,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7">
         <v>0</v>
@@ -3042,7 +3100,7 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="7">
         <v>0</v>
       </c>
       <c r="S13" s="2">
@@ -3076,6 +3134,9 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3089,14 +3150,14 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
+      <c r="E14" s="7">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
+      <c r="G14" s="2">
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3117,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="7">
         <v>0</v>
@@ -3128,7 +3189,7 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="7">
         <v>0</v>
       </c>
       <c r="S14" s="2">
@@ -3162,6 +3223,9 @@
         <v>0</v>
       </c>
       <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3175,14 +3239,14 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3214,7 +3278,7 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="7">
         <v>0</v>
       </c>
       <c r="S15" s="2">
@@ -3248,6 +3312,9 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3261,13 +3328,13 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="7">
@@ -3300,7 +3367,7 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="7">
         <v>0</v>
       </c>
       <c r="S16" s="2">
@@ -3336,8 +3403,11 @@
       <c r="AC16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:29">
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
       <c r="B17" t="s">
         <v>81</v>
       </c>
@@ -3347,13 +3417,13 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="7">
@@ -3386,7 +3456,7 @@
       <c r="Q17" s="7">
         <v>0</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="7">
         <v>0</v>
       </c>
       <c r="S17" s="2">
@@ -3422,8 +3492,11 @@
       <c r="AC17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:29">
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -3433,14 +3506,14 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3461,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="7">
         <v>0</v>
@@ -3472,7 +3545,7 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="7">
         <v>0</v>
       </c>
       <c r="S18" s="2">
@@ -3508,8 +3581,11 @@
       <c r="AC18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:29">
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -3519,14 +3595,14 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3547,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="7">
         <v>0</v>
@@ -3558,7 +3634,7 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="7">
         <v>0</v>
       </c>
       <c r="S19" s="2">
@@ -3594,8 +3670,11 @@
       <c r="AC19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:29">
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -3605,14 +3684,14 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3633,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="7">
         <v>0</v>
@@ -3644,7 +3723,7 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="7">
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -3680,8 +3759,11 @@
       <c r="AC20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:29">
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -3691,14 +3773,14 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3730,7 +3812,7 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="7">
         <v>0</v>
       </c>
       <c r="S21" s="2">
@@ -3766,10 +3848,13 @@
       <c r="AC21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:29">
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
       <c r="B22" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -3777,14 +3862,14 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3816,7 +3901,7 @@
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="7">
         <v>0</v>
       </c>
       <c r="S22" s="2">
@@ -3852,8 +3937,11 @@
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:29">
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -3863,14 +3951,14 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3902,7 +3990,7 @@
       <c r="Q23" s="7">
         <v>0</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="7">
         <v>0</v>
       </c>
       <c r="S23" s="2">
@@ -3938,8 +4026,11 @@
       <c r="AC23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:29">
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -3949,14 +4040,14 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3988,7 +4079,7 @@
       <c r="Q24" s="7">
         <v>0</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="7">
         <v>0</v>
       </c>
       <c r="S24" s="2">
@@ -4024,8 +4115,11 @@
       <c r="AC24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:29">
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -4035,14 +4129,14 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4074,7 +4168,7 @@
       <c r="Q25" s="7">
         <v>0</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="7">
         <v>0</v>
       </c>
       <c r="S25" s="2">
@@ -4110,8 +4204,11 @@
       <c r="AC25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:29">
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -4121,14 +4218,14 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4160,7 +4257,7 @@
       <c r="Q26" s="7">
         <v>0</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="7">
         <v>0</v>
       </c>
       <c r="S26" s="2">
@@ -4196,8 +4293,11 @@
       <c r="AC26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:29">
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
       <c r="B27" t="s">
         <v>22</v>
       </c>
@@ -4207,14 +4307,14 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4246,7 +4346,7 @@
       <c r="Q27" s="7">
         <v>0</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="7">
         <v>0</v>
       </c>
       <c r="S27" s="2">
@@ -4282,8 +4382,11 @@
       <c r="AC27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:29">
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -4293,14 +4396,14 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4332,7 +4435,7 @@
       <c r="Q28" s="7">
         <v>0</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="7">
         <v>0</v>
       </c>
       <c r="S28" s="2">
@@ -4368,8 +4471,11 @@
       <c r="AC28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:29">
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -4379,14 +4485,14 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4418,7 +4524,7 @@
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="7">
         <v>0</v>
       </c>
       <c r="S29" s="2">
@@ -4454,8 +4560,11 @@
       <c r="AC29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:29">
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -4465,14 +4574,14 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4504,7 +4613,7 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="7">
         <v>0</v>
       </c>
       <c r="S30" s="2">
@@ -4540,8 +4649,11 @@
       <c r="AC30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:29">
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -4551,14 +4663,14 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4590,7 +4702,7 @@
       <c r="Q31" s="7">
         <v>0</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="7">
         <v>0</v>
       </c>
       <c r="S31" s="2">
@@ -4626,10 +4738,13 @@
       <c r="AC31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:29">
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
       <c r="B32" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -4637,13 +4752,13 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="7">
@@ -4653,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -4665,19 +4780,19 @@
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="7">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -4712,8 +4827,11 @@
       <c r="AC32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29">
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -4723,13 +4841,13 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="7">
@@ -4739,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
         <v>1</v>
@@ -4751,10 +4869,10 @@
         <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="7">
         <v>1</v>
@@ -4762,8 +4880,8 @@
       <c r="Q33" s="7">
         <v>1</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
+      <c r="R33" s="7">
+        <v>1</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -4798,8 +4916,11 @@
       <c r="AC33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29">
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -4809,14 +4930,14 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1</v>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4837,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="7">
         <v>0</v>
@@ -4848,7 +4969,7 @@
       <c r="Q34" s="7">
         <v>0</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="7">
         <v>0</v>
       </c>
       <c r="S34" s="2">
@@ -4884,8 +5005,11 @@
       <c r="AC34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29">
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -4895,14 +5019,14 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4923,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="7">
         <v>0</v>
@@ -4934,7 +5058,7 @@
       <c r="Q35" s="7">
         <v>0</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="7">
         <v>0</v>
       </c>
       <c r="S35" s="2">
@@ -4970,8 +5094,11 @@
       <c r="AC35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:29">
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -4981,14 +5108,14 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1</v>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5009,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="7">
         <v>0</v>
@@ -5020,7 +5147,7 @@
       <c r="Q36" s="7">
         <v>0</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="7">
         <v>0</v>
       </c>
       <c r="S36" s="2">
@@ -5056,8 +5183,11 @@
       <c r="AC36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29">
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -5067,14 +5197,14 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>1</v>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -5095,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
@@ -5106,7 +5236,7 @@
       <c r="Q37" s="7">
         <v>0</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="7">
         <v>0</v>
       </c>
       <c r="S37" s="2">
@@ -5142,8 +5272,11 @@
       <c r="AC37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:29">
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -5153,14 +5286,14 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -5181,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="7">
         <v>0</v>
@@ -5192,7 +5325,7 @@
       <c r="Q38" s="7">
         <v>0</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="7">
         <v>0</v>
       </c>
       <c r="S38" s="2">
@@ -5228,8 +5361,11 @@
       <c r="AC38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:29">
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -5239,13 +5375,13 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="7">
@@ -5255,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="7">
         <v>1</v>
@@ -5267,10 +5403,10 @@
         <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="7">
         <v>1</v>
@@ -5278,8 +5414,8 @@
       <c r="Q39" s="7">
         <v>1</v>
       </c>
-      <c r="R39" s="2">
-        <v>0</v>
+      <c r="R39" s="7">
+        <v>1</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -5314,8 +5450,11 @@
       <c r="AC39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:29">
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30">
       <c r="B40" t="s">
         <v>32</v>
       </c>
@@ -5325,17 +5464,17 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <v>1</v>
@@ -5353,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="7">
         <v>0</v>
@@ -5364,7 +5503,7 @@
       <c r="Q40" s="7">
         <v>0</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="7">
         <v>0</v>
       </c>
       <c r="S40" s="2">
@@ -5400,8 +5539,11 @@
       <c r="AC40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:29">
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30">
       <c r="B41" t="s">
         <v>33</v>
       </c>
@@ -5411,14 +5553,14 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5450,7 +5592,7 @@
       <c r="Q41" s="7">
         <v>0</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="7">
         <v>0</v>
       </c>
       <c r="S41" s="2">
@@ -5486,8 +5628,11 @@
       <c r="AC41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29">
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30">
       <c r="B42" t="s">
         <v>34</v>
       </c>
@@ -5497,14 +5642,14 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
+      <c r="E42" s="7">
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
-      <c r="G42" s="7">
-        <v>1</v>
+      <c r="G42" s="2">
+        <v>0</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -5525,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="7">
         <v>0</v>
@@ -5536,7 +5681,7 @@
       <c r="Q42" s="7">
         <v>0</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="7">
         <v>0</v>
       </c>
       <c r="S42" s="2">
@@ -5572,8 +5717,11 @@
       <c r="AC42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29">
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30">
       <c r="B43" t="s">
         <v>35</v>
       </c>
@@ -5583,17 +5731,17 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
+      <c r="E43" s="7">
+        <v>1</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <v>1</v>
@@ -5611,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
@@ -5620,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="7">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>1</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -5658,8 +5806,11 @@
       <c r="AC43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29">
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30">
       <c r="B44" t="s">
         <v>36</v>
       </c>
@@ -5669,14 +5820,14 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5708,7 +5859,7 @@
       <c r="Q44" s="7">
         <v>0</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="7">
         <v>0</v>
       </c>
       <c r="S44" s="2">
@@ -5744,8 +5895,11 @@
       <c r="AC44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29">
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30">
       <c r="B45" t="s">
         <v>37</v>
       </c>
@@ -5755,14 +5909,14 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5794,7 +5948,7 @@
       <c r="Q45" s="7">
         <v>0</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="7">
         <v>0</v>
       </c>
       <c r="S45" s="2">
@@ -5830,8 +5984,11 @@
       <c r="AC45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29">
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -5841,14 +5998,14 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -5880,7 +6037,7 @@
       <c r="Q46" s="7">
         <v>0</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="7">
         <v>0</v>
       </c>
       <c r="S46" s="2">
@@ -5916,8 +6073,11 @@
       <c r="AC46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29">
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -5927,14 +6087,14 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5966,7 +6126,7 @@
       <c r="Q47" s="7">
         <v>0</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="7">
         <v>0</v>
       </c>
       <c r="S47" s="2">
@@ -6002,8 +6162,11 @@
       <c r="AC47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29">
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30">
       <c r="B48" t="s">
         <v>40</v>
       </c>
@@ -6013,14 +6176,14 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6052,7 +6215,7 @@
       <c r="Q48" s="7">
         <v>0</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="7">
         <v>0</v>
       </c>
       <c r="S48" s="2">
@@ -6088,8 +6251,11 @@
       <c r="AC48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:29">
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30">
       <c r="B49" t="s">
         <v>41</v>
       </c>
@@ -6099,14 +6265,14 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6138,7 +6304,7 @@
       <c r="Q49" s="7">
         <v>0</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="7">
         <v>0</v>
       </c>
       <c r="S49" s="2">
@@ -6174,8 +6340,11 @@
       <c r="AC49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:29">
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30">
       <c r="B50" t="s">
         <v>42</v>
       </c>
@@ -6185,14 +6354,14 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6224,7 +6393,7 @@
       <c r="Q50" s="7">
         <v>0</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="7">
         <v>0</v>
       </c>
       <c r="S50" s="2">
@@ -6260,8 +6429,11 @@
       <c r="AC50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:29">
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30">
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -6271,14 +6443,14 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -6310,7 +6482,7 @@
       <c r="Q51" s="7">
         <v>0</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="7">
         <v>0</v>
       </c>
       <c r="S51" s="2">
@@ -6346,8 +6518,11 @@
       <c r="AC51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:29">
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30">
       <c r="B52" t="s">
         <v>43</v>
       </c>
@@ -6357,14 +6532,14 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -6396,7 +6571,7 @@
       <c r="Q52" s="7">
         <v>0</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="7">
         <v>0</v>
       </c>
       <c r="S52" s="2">
@@ -6432,8 +6607,11 @@
       <c r="AC52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:29">
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30">
       <c r="B53" t="s">
         <v>44</v>
       </c>
@@ -6443,14 +6621,14 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -6482,7 +6660,7 @@
       <c r="Q53" s="7">
         <v>0</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="7">
         <v>0</v>
       </c>
       <c r="S53" s="2">
@@ -6518,8 +6696,11 @@
       <c r="AC53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:29">
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30">
       <c r="B54" t="s">
         <v>45</v>
       </c>
@@ -6529,14 +6710,14 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -6568,7 +6749,7 @@
       <c r="Q54" s="7">
         <v>0</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="7">
         <v>0</v>
       </c>
       <c r="S54" s="2">
@@ -6604,8 +6785,11 @@
       <c r="AC54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:29">
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30">
       <c r="B55" t="s">
         <v>46</v>
       </c>
@@ -6615,14 +6799,14 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -6654,7 +6838,7 @@
       <c r="Q55" s="7">
         <v>0</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R55" s="7">
         <v>0</v>
       </c>
       <c r="S55" s="2">
@@ -6690,8 +6874,11 @@
       <c r="AC55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:29">
+      <c r="AD55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30">
       <c r="B56" t="s">
         <v>47</v>
       </c>
@@ -6701,13 +6888,13 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="7">
         <v>0</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="7">
@@ -6740,7 +6927,7 @@
       <c r="Q56" s="7">
         <v>0</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56" s="7">
         <v>0</v>
       </c>
       <c r="S56" s="2">
@@ -6776,8 +6963,11 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:29">
+      <c r="AD56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30">
       <c r="B57" t="s">
         <v>48</v>
       </c>
@@ -6787,14 +6977,14 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -6826,7 +7016,7 @@
       <c r="Q57" s="7">
         <v>0</v>
       </c>
-      <c r="R57" s="2">
+      <c r="R57" s="7">
         <v>0</v>
       </c>
       <c r="S57" s="2">
@@ -6862,10 +7052,13 @@
       <c r="AC57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:29">
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30">
       <c r="B58" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -6873,14 +7066,14 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -6912,7 +7105,7 @@
       <c r="Q58" s="7">
         <v>0</v>
       </c>
-      <c r="R58" s="2">
+      <c r="R58" s="7">
         <v>0</v>
       </c>
       <c r="S58" s="2">
@@ -6948,8 +7141,11 @@
       <c r="AC58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:29">
+      <c r="AD58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30">
       <c r="B59" t="s">
         <v>86</v>
       </c>
@@ -6959,14 +7155,14 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -6998,7 +7194,7 @@
       <c r="Q59" s="7">
         <v>0</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R59" s="7">
         <v>0</v>
       </c>
       <c r="S59" s="2">
@@ -7034,8 +7230,11 @@
       <c r="AC59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:29">
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30">
       <c r="B60" t="s">
         <v>87</v>
       </c>
@@ -7045,17 +7244,17 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -7073,10 +7272,10 @@
         <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="7">
         <v>1</v>
@@ -7084,8 +7283,8 @@
       <c r="Q60" s="7">
         <v>1</v>
       </c>
-      <c r="R60" s="2">
-        <v>0</v>
+      <c r="R60" s="7">
+        <v>1</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
@@ -7120,8 +7319,11 @@
       <c r="AC60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:29">
+      <c r="AD60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30">
       <c r="B61" t="s">
         <v>88</v>
       </c>
@@ -7131,14 +7333,14 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -7170,7 +7372,7 @@
       <c r="Q61" s="7">
         <v>0</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R61" s="7">
         <v>0</v>
       </c>
       <c r="S61" s="2">
@@ -7206,8 +7408,11 @@
       <c r="AC61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:29">
+      <c r="AD61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30">
       <c r="B62" t="s">
         <v>89</v>
       </c>
@@ -7217,14 +7422,14 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -7256,7 +7461,7 @@
       <c r="Q62" s="7">
         <v>0</v>
       </c>
-      <c r="R62" s="2">
+      <c r="R62" s="7">
         <v>0</v>
       </c>
       <c r="S62" s="2">
@@ -7292,8 +7497,11 @@
       <c r="AC62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:29">
+      <c r="AD62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30">
       <c r="B63" t="s">
         <v>50</v>
       </c>
@@ -7303,14 +7511,14 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -7342,7 +7550,7 @@
       <c r="Q63" s="7">
         <v>0</v>
       </c>
-      <c r="R63" s="2">
+      <c r="R63" s="7">
         <v>0</v>
       </c>
       <c r="S63" s="2">
@@ -7378,8 +7586,11 @@
       <c r="AC63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:29">
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30">
       <c r="B64" t="s">
         <v>51</v>
       </c>
@@ -7389,14 +7600,14 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0</v>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -7428,7 +7639,7 @@
       <c r="Q64" s="7">
         <v>0</v>
       </c>
-      <c r="R64" s="2">
+      <c r="R64" s="7">
         <v>0</v>
       </c>
       <c r="S64" s="2">
@@ -7464,8 +7675,11 @@
       <c r="AC64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AD64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="B65" t="s">
         <v>52</v>
       </c>
@@ -7475,20 +7689,20 @@
       <c r="D65" s="2">
         <v>0</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="7">
         <v>0</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="2">
         <v>0</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -7503,19 +7717,19 @@
         <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="7">
-        <v>1</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1</v>
       </c>
       <c r="S65" s="2">
         <v>0</v>
@@ -7550,8 +7764,11 @@
       <c r="AC65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AD65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="B66" t="s">
         <v>53</v>
       </c>
@@ -7561,17 +7778,17 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="7">
         <v>0</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
         <v>1</v>
@@ -7600,8 +7817,8 @@
       <c r="Q66" s="7">
         <v>1</v>
       </c>
-      <c r="R66" s="2">
-        <v>0</v>
+      <c r="R66" s="7">
+        <v>1</v>
       </c>
       <c r="S66" s="2">
         <v>0</v>
@@ -7636,8 +7853,11 @@
       <c r="AC66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="B67" t="s">
         <v>54</v>
       </c>
@@ -7647,17 +7867,17 @@
       <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="7">
         <v>0</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="2">
         <v>0</v>
       </c>
       <c r="H67" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
         <v>1</v>
@@ -7686,8 +7906,8 @@
       <c r="Q67" s="7">
         <v>1</v>
       </c>
-      <c r="R67" s="2">
-        <v>0</v>
+      <c r="R67" s="7">
+        <v>1</v>
       </c>
       <c r="S67" s="2">
         <v>0</v>
@@ -7722,8 +7942,11 @@
       <c r="AC67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:29">
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="B68" t="s">
         <v>55</v>
       </c>
@@ -7733,17 +7956,17 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="7">
         <v>0</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="2">
         <v>0</v>
       </c>
       <c r="H68" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
         <v>1</v>
@@ -7772,8 +7995,8 @@
       <c r="Q68" s="7">
         <v>1</v>
       </c>
-      <c r="R68" s="2">
-        <v>0</v>
+      <c r="R68" s="7">
+        <v>1</v>
       </c>
       <c r="S68" s="2">
         <v>0</v>
@@ -7808,8 +8031,11 @@
       <c r="AC68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:29">
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="B69" t="s">
         <v>56</v>
       </c>
@@ -7819,17 +8045,17 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="7">
         <v>0</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -7858,8 +8084,8 @@
       <c r="Q69" s="7">
         <v>1</v>
       </c>
-      <c r="R69" s="2">
-        <v>0</v>
+      <c r="R69" s="7">
+        <v>1</v>
       </c>
       <c r="S69" s="2">
         <v>0</v>
@@ -7894,8 +8120,11 @@
       <c r="AC69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:29">
+      <c r="AD69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="B70" t="s">
         <v>57</v>
       </c>
@@ -7905,20 +8134,20 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="7">
         <v>0</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="2">
         <v>0</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7">
         <v>1</v>
@@ -7933,19 +8162,19 @@
         <v>1</v>
       </c>
       <c r="N70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="7">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>1</v>
       </c>
       <c r="S70" s="2">
         <v>0</v>
@@ -7980,8 +8209,11 @@
       <c r="AC70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AD70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="B71" t="s">
         <v>58</v>
       </c>
@@ -7991,14 +8223,14 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="2">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0</v>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -8030,7 +8262,7 @@
       <c r="Q71" s="7">
         <v>0</v>
       </c>
-      <c r="R71" s="2">
+      <c r="R71" s="7">
         <v>0</v>
       </c>
       <c r="S71" s="2">
@@ -8066,10 +8298,13 @@
       <c r="AC71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:29">
+      <c r="AD71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="B72" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -8077,14 +8312,14 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0</v>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8116,7 +8351,7 @@
       <c r="Q72" s="7">
         <v>0</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="7">
         <v>0</v>
       </c>
       <c r="S72" s="2">
@@ -8152,8 +8387,11 @@
       <c r="AC72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AD72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="B73" t="s">
         <v>66</v>
       </c>
@@ -8163,14 +8401,14 @@
       <c r="D73" s="2">
         <v>0</v>
       </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0</v>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8202,7 +8440,7 @@
       <c r="Q73" s="7">
         <v>0</v>
       </c>
-      <c r="R73" s="2">
+      <c r="R73" s="7">
         <v>0</v>
       </c>
       <c r="S73" s="2">
@@ -8238,8 +8476,11 @@
       <c r="AC73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:29">
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="B74" t="s">
         <v>60</v>
       </c>
@@ -8249,13 +8490,13 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="7">
         <v>0</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="7">
@@ -8265,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="7">
         <v>1</v>
@@ -8277,10 +8518,10 @@
         <v>1</v>
       </c>
       <c r="N74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" s="7">
         <v>1</v>
@@ -8288,8 +8529,8 @@
       <c r="Q74" s="7">
         <v>1</v>
       </c>
-      <c r="R74" s="2">
-        <v>0</v>
+      <c r="R74" s="7">
+        <v>1</v>
       </c>
       <c r="S74" s="2">
         <v>0</v>
@@ -8324,8 +8565,11 @@
       <c r="AC74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:29">
+      <c r="AD74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="B75" t="s">
         <v>61</v>
       </c>
@@ -8335,13 +8579,13 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="2">
-        <v>0</v>
+      <c r="E75" s="7">
+        <v>1</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="7">
@@ -8351,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="7">
         <v>1</v>
@@ -8363,10 +8607,10 @@
         <v>1</v>
       </c>
       <c r="N75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" s="7">
         <v>1</v>
@@ -8374,8 +8618,8 @@
       <c r="Q75" s="7">
         <v>1</v>
       </c>
-      <c r="R75" s="2">
-        <v>0</v>
+      <c r="R75" s="7">
+        <v>1</v>
       </c>
       <c r="S75" s="2">
         <v>0</v>
@@ -8410,8 +8654,11 @@
       <c r="AC75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:29">
+      <c r="AD75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="B76" t="s">
         <v>62</v>
       </c>
@@ -8421,13 +8668,13 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
+      <c r="E76" s="7">
+        <v>1</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="2">
         <v>0</v>
       </c>
       <c r="H76" s="7">
@@ -8437,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="7">
         <v>1</v>
@@ -8449,10 +8696,10 @@
         <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="7">
         <v>1</v>
@@ -8460,8 +8707,8 @@
       <c r="Q76" s="7">
         <v>1</v>
       </c>
-      <c r="R76" s="2">
-        <v>0</v>
+      <c r="R76" s="7">
+        <v>1</v>
       </c>
       <c r="S76" s="2">
         <v>0</v>
@@ -8496,8 +8743,11 @@
       <c r="AC76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:29">
+      <c r="AD76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="B77" t="s">
         <v>63</v>
       </c>
@@ -8507,13 +8757,13 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="2">
-        <v>0</v>
+      <c r="E77" s="7">
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="2">
         <v>0</v>
       </c>
       <c r="H77" s="7">
@@ -8523,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="7">
         <v>1</v>
@@ -8535,10 +8785,10 @@
         <v>1</v>
       </c>
       <c r="N77" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="7">
         <v>1</v>
@@ -8546,8 +8796,8 @@
       <c r="Q77" s="7">
         <v>1</v>
       </c>
-      <c r="R77" s="2">
-        <v>0</v>
+      <c r="R77" s="7">
+        <v>1</v>
       </c>
       <c r="S77" s="2">
         <v>0</v>
@@ -8582,13 +8832,16 @@
       <c r="AC77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:29">
+      <c r="AD77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
         <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -8671,10 +8924,13 @@
       <c r="AC78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:29">
+      <c r="AD78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="B79" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -8757,8 +9013,11 @@
       <c r="AC79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:29">
+      <c r="AD79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="B80" t="s">
         <v>2</v>
       </c>
@@ -8807,8 +9066,8 @@
       <c r="Q80" s="2">
         <v>0</v>
       </c>
-      <c r="R80" s="7">
-        <v>1</v>
+      <c r="R80" s="2">
+        <v>0</v>
       </c>
       <c r="S80" s="7">
         <v>1</v>
@@ -8826,16 +9085,16 @@
         <v>1</v>
       </c>
       <c r="X80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="7">
         <v>1</v>
       </c>
       <c r="AA80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80" s="7">
         <v>0</v>
@@ -8843,8 +9102,11 @@
       <c r="AC80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:29">
+      <c r="AD80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30">
       <c r="B81" t="s">
         <v>3</v>
       </c>
@@ -8893,7 +9155,7 @@
       <c r="Q81" s="2">
         <v>0</v>
       </c>
-      <c r="R81" s="7">
+      <c r="R81" s="2">
         <v>0</v>
       </c>
       <c r="S81" s="7">
@@ -8929,8 +9191,11 @@
       <c r="AC81" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:29">
+      <c r="AD81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30">
       <c r="B82" t="s">
         <v>4</v>
       </c>
@@ -8979,7 +9244,7 @@
       <c r="Q82" s="2">
         <v>0</v>
       </c>
-      <c r="R82" s="7">
+      <c r="R82" s="2">
         <v>0</v>
       </c>
       <c r="S82" s="7">
@@ -9015,8 +9280,11 @@
       <c r="AC82" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:29">
+      <c r="AD82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30">
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -9065,8 +9333,8 @@
       <c r="Q83" s="2">
         <v>0</v>
       </c>
-      <c r="R83" s="7">
-        <v>1</v>
+      <c r="R83" s="2">
+        <v>0</v>
       </c>
       <c r="S83" s="7">
         <v>1</v>
@@ -9081,28 +9349,31 @@
         <v>1</v>
       </c>
       <c r="W83" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" s="7">
         <v>0</v>
       </c>
       <c r="Y83" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="7">
         <v>1</v>
       </c>
       <c r="AA83" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB83" s="7">
         <v>0</v>
       </c>
       <c r="AC83" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:29">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -9151,7 +9422,7 @@
       <c r="Q84" s="2">
         <v>0</v>
       </c>
-      <c r="R84" s="7">
+      <c r="R84" s="2">
         <v>0</v>
       </c>
       <c r="S84" s="7">
@@ -9187,8 +9458,11 @@
       <c r="AC84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:29">
+      <c r="AD84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30">
       <c r="B85" t="s">
         <v>7</v>
       </c>
@@ -9237,7 +9511,7 @@
       <c r="Q85" s="2">
         <v>0</v>
       </c>
-      <c r="R85" s="7">
+      <c r="R85" s="2">
         <v>0</v>
       </c>
       <c r="S85" s="7">
@@ -9273,8 +9547,11 @@
       <c r="AC85" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:29">
+      <c r="AD85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30">
       <c r="B86" t="s">
         <v>8</v>
       </c>
@@ -9323,8 +9600,8 @@
       <c r="Q86" s="2">
         <v>0</v>
       </c>
-      <c r="R86" s="7">
-        <v>1</v>
+      <c r="R86" s="2">
+        <v>0</v>
       </c>
       <c r="S86" s="7">
         <v>1</v>
@@ -9342,16 +9619,16 @@
         <v>1</v>
       </c>
       <c r="X86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" s="7">
         <v>0</v>
       </c>
       <c r="Z86" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86" s="7">
         <v>0</v>
@@ -9359,8 +9636,11 @@
       <c r="AC86" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:29">
+      <c r="AD86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30">
       <c r="B87" t="s">
         <v>9</v>
       </c>
@@ -9409,7 +9689,7 @@
       <c r="Q87" s="2">
         <v>0</v>
       </c>
-      <c r="R87" s="7">
+      <c r="R87" s="2">
         <v>0</v>
       </c>
       <c r="S87" s="7">
@@ -9445,8 +9725,11 @@
       <c r="AC87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:29">
+      <c r="AD87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30">
       <c r="B88" t="s">
         <v>10</v>
       </c>
@@ -9495,8 +9778,8 @@
       <c r="Q88" s="2">
         <v>0</v>
       </c>
-      <c r="R88" s="7">
-        <v>1</v>
+      <c r="R88" s="2">
+        <v>0</v>
       </c>
       <c r="S88" s="7">
         <v>1</v>
@@ -9511,19 +9794,19 @@
         <v>1</v>
       </c>
       <c r="W88" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" s="7">
         <v>0</v>
       </c>
       <c r="Y88" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="7">
         <v>1</v>
       </c>
       <c r="AA88" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88" s="7">
         <v>0</v>
@@ -9531,8 +9814,11 @@
       <c r="AC88" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:29">
+      <c r="AD88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30">
       <c r="B89" t="s">
         <v>97</v>
       </c>
@@ -9581,7 +9867,7 @@
       <c r="Q89" s="2">
         <v>0</v>
       </c>
-      <c r="R89" s="7">
+      <c r="R89" s="2">
         <v>0</v>
       </c>
       <c r="S89" s="7">
@@ -9617,8 +9903,11 @@
       <c r="AC89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:29">
+      <c r="AD89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30">
       <c r="B90" t="s">
         <v>11</v>
       </c>
@@ -9667,7 +9956,7 @@
       <c r="Q90" s="2">
         <v>0</v>
       </c>
-      <c r="R90" s="7">
+      <c r="R90" s="2">
         <v>0</v>
       </c>
       <c r="S90" s="7">
@@ -9703,8 +9992,11 @@
       <c r="AC90" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:29">
+      <c r="AD90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30">
       <c r="B91" t="s">
         <v>12</v>
       </c>
@@ -9753,8 +10045,8 @@
       <c r="Q91" s="2">
         <v>0</v>
       </c>
-      <c r="R91" s="7">
-        <v>1</v>
+      <c r="R91" s="2">
+        <v>0</v>
       </c>
       <c r="S91" s="7">
         <v>1</v>
@@ -9769,19 +10061,19 @@
         <v>1</v>
       </c>
       <c r="W91" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91" s="7">
         <v>0</v>
       </c>
       <c r="Y91" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="7">
         <v>1</v>
       </c>
       <c r="AA91" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91" s="7">
         <v>0</v>
@@ -9789,8 +10081,11 @@
       <c r="AC91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:29">
+      <c r="AD91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30">
       <c r="B92" t="s">
         <v>81</v>
       </c>
@@ -9839,8 +10134,8 @@
       <c r="Q92" s="2">
         <v>0</v>
       </c>
-      <c r="R92" s="7">
-        <v>1</v>
+      <c r="R92" s="2">
+        <v>0</v>
       </c>
       <c r="S92" s="7">
         <v>1</v>
@@ -9858,25 +10153,28 @@
         <v>1</v>
       </c>
       <c r="X92" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="7">
         <v>1</v>
       </c>
       <c r="AA92" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB92" s="7">
         <v>0</v>
       </c>
       <c r="AC92" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30">
       <c r="B93" t="s">
         <v>13</v>
       </c>
@@ -9925,8 +10223,8 @@
       <c r="Q93" s="2">
         <v>0</v>
       </c>
-      <c r="R93" s="7">
-        <v>1</v>
+      <c r="R93" s="2">
+        <v>0</v>
       </c>
       <c r="S93" s="7">
         <v>1</v>
@@ -9941,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="W93" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" s="7">
         <v>0</v>
@@ -9950,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="Z93" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93" s="7">
         <v>0</v>
@@ -9961,10 +10259,13 @@
       <c r="AC93" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:29">
+      <c r="AD93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30">
       <c r="B94" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -10011,8 +10312,8 @@
       <c r="Q94" s="2">
         <v>0</v>
       </c>
-      <c r="R94" s="7">
-        <v>1</v>
+      <c r="R94" s="2">
+        <v>0</v>
       </c>
       <c r="S94" s="7">
         <v>1</v>
@@ -10027,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="W94" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" s="7">
         <v>0</v>
@@ -10036,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="Z94" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94" s="7">
         <v>0</v>
@@ -10047,8 +10348,11 @@
       <c r="AC94" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:29">
+      <c r="AD94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30">
       <c r="B95" t="s">
         <v>15</v>
       </c>
@@ -10097,8 +10401,8 @@
       <c r="Q95" s="2">
         <v>0</v>
       </c>
-      <c r="R95" s="7">
-        <v>1</v>
+      <c r="R95" s="2">
+        <v>0</v>
       </c>
       <c r="S95" s="7">
         <v>1</v>
@@ -10113,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="W95" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95" s="7">
         <v>0</v>
@@ -10122,10 +10426,10 @@
         <v>0</v>
       </c>
       <c r="Z95" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA95" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95" s="7">
         <v>0</v>
@@ -10133,8 +10437,11 @@
       <c r="AC95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:29">
+      <c r="AD95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30">
       <c r="B96" t="s">
         <v>16</v>
       </c>
@@ -10183,7 +10490,7 @@
       <c r="Q96" s="2">
         <v>0</v>
       </c>
-      <c r="R96" s="7">
+      <c r="R96" s="2">
         <v>0</v>
       </c>
       <c r="S96" s="7">
@@ -10219,8 +10526,11 @@
       <c r="AC96" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:29">
+      <c r="AD96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30">
       <c r="B97" t="s">
         <v>17</v>
       </c>
@@ -10269,7 +10579,7 @@
       <c r="Q97" s="2">
         <v>0</v>
       </c>
-      <c r="R97" s="7">
+      <c r="R97" s="2">
         <v>0</v>
       </c>
       <c r="S97" s="7">
@@ -10305,8 +10615,11 @@
       <c r="AC97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:29">
+      <c r="AD97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30">
       <c r="B98" t="s">
         <v>18</v>
       </c>
@@ -10355,7 +10668,7 @@
       <c r="Q98" s="2">
         <v>0</v>
       </c>
-      <c r="R98" s="7">
+      <c r="R98" s="2">
         <v>0</v>
       </c>
       <c r="S98" s="7">
@@ -10391,8 +10704,11 @@
       <c r="AC98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:29">
+      <c r="AD98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30">
       <c r="B99" t="s">
         <v>19</v>
       </c>
@@ -10441,7 +10757,7 @@
       <c r="Q99" s="2">
         <v>0</v>
       </c>
-      <c r="R99" s="7">
+      <c r="R99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="7">
@@ -10477,8 +10793,11 @@
       <c r="AC99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:29">
+      <c r="AD99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30">
       <c r="B100" t="s">
         <v>20</v>
       </c>
@@ -10527,7 +10846,7 @@
       <c r="Q100" s="2">
         <v>0</v>
       </c>
-      <c r="R100" s="7">
+      <c r="R100" s="2">
         <v>0</v>
       </c>
       <c r="S100" s="7">
@@ -10563,10 +10882,13 @@
       <c r="AC100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:29">
+      <c r="AD100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30">
       <c r="B101" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -10613,7 +10935,7 @@
       <c r="Q101" s="2">
         <v>0</v>
       </c>
-      <c r="R101" s="7">
+      <c r="R101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="7">
@@ -10649,8 +10971,11 @@
       <c r="AC101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:29">
+      <c r="AD101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30">
       <c r="B102" t="s">
         <v>22</v>
       </c>
@@ -10699,7 +11024,7 @@
       <c r="Q102" s="2">
         <v>0</v>
       </c>
-      <c r="R102" s="7">
+      <c r="R102" s="2">
         <v>0</v>
       </c>
       <c r="S102" s="7">
@@ -10735,8 +11060,11 @@
       <c r="AC102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:29">
+      <c r="AD102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30">
       <c r="B103" t="s">
         <v>23</v>
       </c>
@@ -10785,7 +11113,7 @@
       <c r="Q103" s="2">
         <v>0</v>
       </c>
-      <c r="R103" s="7">
+      <c r="R103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="7">
@@ -10821,8 +11149,11 @@
       <c r="AC103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:29">
+      <c r="AD103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30">
       <c r="B104" t="s">
         <v>67</v>
       </c>
@@ -10871,7 +11202,7 @@
       <c r="Q104" s="2">
         <v>0</v>
       </c>
-      <c r="R104" s="7">
+      <c r="R104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="7">
@@ -10907,8 +11238,11 @@
       <c r="AC104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:29">
+      <c r="AD104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:30">
       <c r="B105" t="s">
         <v>24</v>
       </c>
@@ -10957,7 +11291,7 @@
       <c r="Q105" s="2">
         <v>0</v>
       </c>
-      <c r="R105" s="7">
+      <c r="R105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="7">
@@ -10993,8 +11327,11 @@
       <c r="AC105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:29">
+      <c r="AD105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:30">
       <c r="B106" t="s">
         <v>105</v>
       </c>
@@ -11043,7 +11380,7 @@
       <c r="Q106" s="2">
         <v>0</v>
       </c>
-      <c r="R106" s="7">
+      <c r="R106" s="2">
         <v>0</v>
       </c>
       <c r="S106" s="7">
@@ -11079,8 +11416,11 @@
       <c r="AC106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:29">
+      <c r="AD106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30">
       <c r="B107" t="s">
         <v>25</v>
       </c>
@@ -11129,8 +11469,8 @@
       <c r="Q107" s="2">
         <v>0</v>
       </c>
-      <c r="R107" s="7">
-        <v>1</v>
+      <c r="R107" s="2">
+        <v>0</v>
       </c>
       <c r="S107" s="7">
         <v>1</v>
@@ -11145,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="W107" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" s="7">
         <v>0</v>
@@ -11154,10 +11494,10 @@
         <v>0</v>
       </c>
       <c r="Z107" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA107" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107" s="7">
         <v>0</v>
@@ -11165,8 +11505,11 @@
       <c r="AC107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:29">
+      <c r="AD107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30">
       <c r="B108" t="s">
         <v>26</v>
       </c>
@@ -11215,8 +11558,8 @@
       <c r="Q108" s="2">
         <v>0</v>
       </c>
-      <c r="R108" s="7">
-        <v>1</v>
+      <c r="R108" s="2">
+        <v>0</v>
       </c>
       <c r="S108" s="7">
         <v>1</v>
@@ -11231,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="W108" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" s="7">
         <v>0</v>
@@ -11240,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="Z108" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA108" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108" s="7">
         <v>0</v>
@@ -11251,8 +11594,11 @@
       <c r="AC108" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:29">
+      <c r="AD108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:30">
       <c r="B109" t="s">
         <v>82</v>
       </c>
@@ -11301,8 +11647,8 @@
       <c r="Q109" s="2">
         <v>0</v>
       </c>
-      <c r="R109" s="7">
-        <v>1</v>
+      <c r="R109" s="2">
+        <v>0</v>
       </c>
       <c r="S109" s="7">
         <v>1</v>
@@ -11317,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="W109" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X109" s="7">
         <v>0</v>
@@ -11326,10 +11672,10 @@
         <v>0</v>
       </c>
       <c r="Z109" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA109" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109" s="7">
         <v>0</v>
@@ -11337,8 +11683,11 @@
       <c r="AC109" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:29">
+      <c r="AD109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:30">
       <c r="B110" t="s">
         <v>27</v>
       </c>
@@ -11387,8 +11736,8 @@
       <c r="Q110" s="2">
         <v>0</v>
       </c>
-      <c r="R110" s="7">
-        <v>1</v>
+      <c r="R110" s="2">
+        <v>0</v>
       </c>
       <c r="S110" s="7">
         <v>1</v>
@@ -11403,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="W110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110" s="7">
         <v>0</v>
@@ -11412,10 +11761,10 @@
         <v>0</v>
       </c>
       <c r="Z110" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110" s="7">
         <v>0</v>
@@ -11423,8 +11772,11 @@
       <c r="AC110" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:29">
+      <c r="AD110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:30">
       <c r="B111" t="s">
         <v>28</v>
       </c>
@@ -11473,8 +11825,8 @@
       <c r="Q111" s="2">
         <v>0</v>
       </c>
-      <c r="R111" s="7">
-        <v>1</v>
+      <c r="R111" s="2">
+        <v>0</v>
       </c>
       <c r="S111" s="7">
         <v>1</v>
@@ -11489,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="W111" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111" s="7">
         <v>0</v>
@@ -11498,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="Z111" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB111" s="7">
         <v>0</v>
@@ -11509,8 +11861,11 @@
       <c r="AC111" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:29">
+      <c r="AD111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:30">
       <c r="B112" t="s">
         <v>29</v>
       </c>
@@ -11559,8 +11914,8 @@
       <c r="Q112" s="2">
         <v>0</v>
       </c>
-      <c r="R112" s="7">
-        <v>1</v>
+      <c r="R112" s="2">
+        <v>0</v>
       </c>
       <c r="S112" s="7">
         <v>1</v>
@@ -11575,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="W112" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112" s="7">
         <v>0</v>
@@ -11584,10 +11939,10 @@
         <v>0</v>
       </c>
       <c r="Z112" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA112" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112" s="7">
         <v>0</v>
@@ -11595,8 +11950,11 @@
       <c r="AC112" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:29">
+      <c r="AD112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30">
       <c r="B113" t="s">
         <v>30</v>
       </c>
@@ -11645,8 +12003,8 @@
       <c r="Q113" s="2">
         <v>0</v>
       </c>
-      <c r="R113" s="7">
-        <v>1</v>
+      <c r="R113" s="2">
+        <v>0</v>
       </c>
       <c r="S113" s="7">
         <v>1</v>
@@ -11661,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="W113" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X113" s="7">
         <v>0</v>
@@ -11670,10 +12028,10 @@
         <v>0</v>
       </c>
       <c r="Z113" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA113" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB113" s="7">
         <v>0</v>
@@ -11681,8 +12039,11 @@
       <c r="AC113" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:29">
+      <c r="AD113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30">
       <c r="B114" t="s">
         <v>31</v>
       </c>
@@ -11731,8 +12092,8 @@
       <c r="Q114" s="2">
         <v>0</v>
       </c>
-      <c r="R114" s="7">
-        <v>1</v>
+      <c r="R114" s="2">
+        <v>0</v>
       </c>
       <c r="S114" s="7">
         <v>1</v>
@@ -11750,16 +12111,16 @@
         <v>1</v>
       </c>
       <c r="X114" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y114" s="7">
         <v>0</v>
       </c>
       <c r="Z114" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA114" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114" s="7">
         <v>0</v>
@@ -11767,8 +12128,11 @@
       <c r="AC114" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:29">
+      <c r="AD114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30">
       <c r="B115" t="s">
         <v>32</v>
       </c>
@@ -11817,8 +12181,8 @@
       <c r="Q115" s="2">
         <v>0</v>
       </c>
-      <c r="R115" s="7">
-        <v>1</v>
+      <c r="R115" s="2">
+        <v>0</v>
       </c>
       <c r="S115" s="7">
         <v>1</v>
@@ -11836,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="X115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y115" s="7">
         <v>0</v>
@@ -11851,10 +12215,13 @@
         <v>0</v>
       </c>
       <c r="AC115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:29">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30">
       <c r="B116" t="s">
         <v>33</v>
       </c>
@@ -11903,7 +12270,7 @@
       <c r="Q116" s="2">
         <v>0</v>
       </c>
-      <c r="R116" s="7">
+      <c r="R116" s="2">
         <v>0</v>
       </c>
       <c r="S116" s="7">
@@ -11939,8 +12306,11 @@
       <c r="AC116" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:29">
+      <c r="AD116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30">
       <c r="B117" t="s">
         <v>34</v>
       </c>
@@ -11989,7 +12359,7 @@
       <c r="Q117" s="2">
         <v>0</v>
       </c>
-      <c r="R117" s="7">
+      <c r="R117" s="2">
         <v>0</v>
       </c>
       <c r="S117" s="7">
@@ -12025,8 +12395,11 @@
       <c r="AC117" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:29">
+      <c r="AD117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30">
       <c r="B118" t="s">
         <v>35</v>
       </c>
@@ -12075,7 +12448,7 @@
       <c r="Q118" s="2">
         <v>0</v>
       </c>
-      <c r="R118" s="7">
+      <c r="R118" s="2">
         <v>0</v>
       </c>
       <c r="S118" s="7">
@@ -12111,8 +12484,11 @@
       <c r="AC118" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:29">
+      <c r="AD118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30">
       <c r="B119" t="s">
         <v>36</v>
       </c>
@@ -12161,7 +12537,7 @@
       <c r="Q119" s="2">
         <v>0</v>
       </c>
-      <c r="R119" s="7">
+      <c r="R119" s="2">
         <v>0</v>
       </c>
       <c r="S119" s="7">
@@ -12197,8 +12573,11 @@
       <c r="AC119" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:29">
+      <c r="AD119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30">
       <c r="B120" t="s">
         <v>37</v>
       </c>
@@ -12247,7 +12626,7 @@
       <c r="Q120" s="2">
         <v>0</v>
       </c>
-      <c r="R120" s="7">
+      <c r="R120" s="2">
         <v>0</v>
       </c>
       <c r="S120" s="7">
@@ -12283,8 +12662,11 @@
       <c r="AC120" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:29">
+      <c r="AD120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:30">
       <c r="B121" t="s">
         <v>38</v>
       </c>
@@ -12333,7 +12715,7 @@
       <c r="Q121" s="2">
         <v>0</v>
       </c>
-      <c r="R121" s="7">
+      <c r="R121" s="2">
         <v>0</v>
       </c>
       <c r="S121" s="7">
@@ -12369,8 +12751,11 @@
       <c r="AC121" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:29">
+      <c r="AD121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30">
       <c r="B122" t="s">
         <v>39</v>
       </c>
@@ -12419,7 +12804,7 @@
       <c r="Q122" s="2">
         <v>0</v>
       </c>
-      <c r="R122" s="7">
+      <c r="R122" s="2">
         <v>0</v>
       </c>
       <c r="S122" s="7">
@@ -12455,8 +12840,11 @@
       <c r="AC122" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:29">
+      <c r="AD122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30">
       <c r="B123" t="s">
         <v>40</v>
       </c>
@@ -12505,7 +12893,7 @@
       <c r="Q123" s="2">
         <v>0</v>
       </c>
-      <c r="R123" s="7">
+      <c r="R123" s="2">
         <v>0</v>
       </c>
       <c r="S123" s="7">
@@ -12541,8 +12929,11 @@
       <c r="AC123" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:29">
+      <c r="AD123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30">
       <c r="B124" t="s">
         <v>41</v>
       </c>
@@ -12591,7 +12982,7 @@
       <c r="Q124" s="2">
         <v>0</v>
       </c>
-      <c r="R124" s="7">
+      <c r="R124" s="2">
         <v>0</v>
       </c>
       <c r="S124" s="7">
@@ -12627,8 +13018,11 @@
       <c r="AC124" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:29">
+      <c r="AD124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30">
       <c r="B125" t="s">
         <v>42</v>
       </c>
@@ -12677,7 +13071,7 @@
       <c r="Q125" s="2">
         <v>0</v>
       </c>
-      <c r="R125" s="7">
+      <c r="R125" s="2">
         <v>0</v>
       </c>
       <c r="S125" s="7">
@@ -12713,8 +13107,11 @@
       <c r="AC125" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:29">
+      <c r="AD125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30">
       <c r="B126" t="s">
         <v>68</v>
       </c>
@@ -12763,7 +13160,7 @@
       <c r="Q126" s="2">
         <v>0</v>
       </c>
-      <c r="R126" s="7">
+      <c r="R126" s="2">
         <v>0</v>
       </c>
       <c r="S126" s="7">
@@ -12799,8 +13196,11 @@
       <c r="AC126" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:29">
+      <c r="AD126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:30">
       <c r="B127" t="s">
         <v>43</v>
       </c>
@@ -12849,7 +13249,7 @@
       <c r="Q127" s="2">
         <v>0</v>
       </c>
-      <c r="R127" s="7">
+      <c r="R127" s="2">
         <v>0</v>
       </c>
       <c r="S127" s="7">
@@ -12885,8 +13285,11 @@
       <c r="AC127" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:29">
+      <c r="AD127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30">
       <c r="B128" t="s">
         <v>44</v>
       </c>
@@ -12935,7 +13338,7 @@
       <c r="Q128" s="2">
         <v>0</v>
       </c>
-      <c r="R128" s="7">
+      <c r="R128" s="2">
         <v>0</v>
       </c>
       <c r="S128" s="7">
@@ -12971,8 +13374,11 @@
       <c r="AC128" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:29">
+      <c r="AD128" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30">
       <c r="B129" t="s">
         <v>45</v>
       </c>
@@ -13021,7 +13427,7 @@
       <c r="Q129" s="2">
         <v>0</v>
       </c>
-      <c r="R129" s="7">
+      <c r="R129" s="2">
         <v>0</v>
       </c>
       <c r="S129" s="7">
@@ -13057,8 +13463,11 @@
       <c r="AC129" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:29">
+      <c r="AD129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30">
       <c r="B130" t="s">
         <v>46</v>
       </c>
@@ -13107,7 +13516,7 @@
       <c r="Q130" s="2">
         <v>0</v>
       </c>
-      <c r="R130" s="7">
+      <c r="R130" s="2">
         <v>0</v>
       </c>
       <c r="S130" s="7">
@@ -13143,8 +13552,11 @@
       <c r="AC130" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:29">
+      <c r="AD130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30">
       <c r="B131" t="s">
         <v>47</v>
       </c>
@@ -13193,8 +13605,8 @@
       <c r="Q131" s="2">
         <v>0</v>
       </c>
-      <c r="R131" s="7">
-        <v>1</v>
+      <c r="R131" s="2">
+        <v>0</v>
       </c>
       <c r="S131" s="7">
         <v>1</v>
@@ -13229,8 +13641,11 @@
       <c r="AC131" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:29">
+      <c r="AD131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30">
       <c r="B132" t="s">
         <v>48</v>
       </c>
@@ -13279,7 +13694,7 @@
       <c r="Q132" s="2">
         <v>0</v>
       </c>
-      <c r="R132" s="7">
+      <c r="R132" s="2">
         <v>0</v>
       </c>
       <c r="S132" s="7">
@@ -13315,8 +13730,11 @@
       <c r="AC132" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:29">
+      <c r="AD132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30">
       <c r="B133" t="s">
         <v>49</v>
       </c>
@@ -13365,7 +13783,7 @@
       <c r="Q133" s="2">
         <v>0</v>
       </c>
-      <c r="R133" s="7">
+      <c r="R133" s="2">
         <v>0</v>
       </c>
       <c r="S133" s="7">
@@ -13401,8 +13819,11 @@
       <c r="AC133" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:29">
+      <c r="AD133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30">
       <c r="B134" t="s">
         <v>86</v>
       </c>
@@ -13451,7 +13872,7 @@
       <c r="Q134" s="2">
         <v>0</v>
       </c>
-      <c r="R134" s="7">
+      <c r="R134" s="2">
         <v>0</v>
       </c>
       <c r="S134" s="7">
@@ -13487,8 +13908,11 @@
       <c r="AC134" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:29">
+      <c r="AD134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30">
       <c r="B135" t="s">
         <v>87</v>
       </c>
@@ -13537,11 +13961,11 @@
       <c r="Q135" s="2">
         <v>0</v>
       </c>
-      <c r="R135" s="7">
+      <c r="R135" s="2">
         <v>0</v>
       </c>
       <c r="S135" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T135" s="7">
         <v>1</v>
@@ -13553,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="W135" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X135" s="7">
         <v>0</v>
@@ -13562,10 +13986,10 @@
         <v>0</v>
       </c>
       <c r="Z135" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA135" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB135" s="7">
         <v>0</v>
@@ -13573,8 +13997,11 @@
       <c r="AC135" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:29">
+      <c r="AD135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30">
       <c r="B136" t="s">
         <v>88</v>
       </c>
@@ -13623,7 +14050,7 @@
       <c r="Q136" s="2">
         <v>0</v>
       </c>
-      <c r="R136" s="7">
+      <c r="R136" s="2">
         <v>0</v>
       </c>
       <c r="S136" s="7">
@@ -13659,8 +14086,11 @@
       <c r="AC136" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:29">
+      <c r="AD136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30">
       <c r="B137" t="s">
         <v>89</v>
       </c>
@@ -13709,7 +14139,7 @@
       <c r="Q137" s="2">
         <v>0</v>
       </c>
-      <c r="R137" s="7">
+      <c r="R137" s="2">
         <v>0</v>
       </c>
       <c r="S137" s="7">
@@ -13745,8 +14175,11 @@
       <c r="AC137" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:29">
+      <c r="AD137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30">
       <c r="B138" t="s">
         <v>50</v>
       </c>
@@ -13795,7 +14228,7 @@
       <c r="Q138" s="2">
         <v>0</v>
       </c>
-      <c r="R138" s="7">
+      <c r="R138" s="2">
         <v>0</v>
       </c>
       <c r="S138" s="7">
@@ -13831,8 +14264,11 @@
       <c r="AC138" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:29">
+      <c r="AD138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30">
       <c r="B139" t="s">
         <v>51</v>
       </c>
@@ -13881,7 +14317,7 @@
       <c r="Q139" s="2">
         <v>0</v>
       </c>
-      <c r="R139" s="7">
+      <c r="R139" s="2">
         <v>0</v>
       </c>
       <c r="S139" s="7">
@@ -13917,8 +14353,11 @@
       <c r="AC139" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:29">
+      <c r="AD139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30">
       <c r="B140" t="s">
         <v>52</v>
       </c>
@@ -13967,7 +14406,7 @@
       <c r="Q140" s="2">
         <v>0</v>
       </c>
-      <c r="R140" s="7">
+      <c r="R140" s="2">
         <v>0</v>
       </c>
       <c r="S140" s="7">
@@ -14003,8 +14442,11 @@
       <c r="AC140" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:29">
+      <c r="AD140" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30">
       <c r="B141" t="s">
         <v>53</v>
       </c>
@@ -14053,7 +14495,7 @@
       <c r="Q141" s="2">
         <v>0</v>
       </c>
-      <c r="R141" s="7">
+      <c r="R141" s="2">
         <v>0</v>
       </c>
       <c r="S141" s="7">
@@ -14089,8 +14531,11 @@
       <c r="AC141" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:29">
+      <c r="AD141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30">
       <c r="B142" t="s">
         <v>54</v>
       </c>
@@ -14139,7 +14584,7 @@
       <c r="Q142" s="2">
         <v>0</v>
       </c>
-      <c r="R142" s="7">
+      <c r="R142" s="2">
         <v>0</v>
       </c>
       <c r="S142" s="7">
@@ -14175,8 +14620,11 @@
       <c r="AC142" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:29">
+      <c r="AD142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30">
       <c r="B143" t="s">
         <v>55</v>
       </c>
@@ -14225,7 +14673,7 @@
       <c r="Q143" s="2">
         <v>0</v>
       </c>
-      <c r="R143" s="7">
+      <c r="R143" s="2">
         <v>0</v>
       </c>
       <c r="S143" s="7">
@@ -14261,8 +14709,11 @@
       <c r="AC143" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:29">
+      <c r="AD143" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30">
       <c r="B144" t="s">
         <v>56</v>
       </c>
@@ -14311,7 +14762,7 @@
       <c r="Q144" s="2">
         <v>0</v>
       </c>
-      <c r="R144" s="7">
+      <c r="R144" s="2">
         <v>0</v>
       </c>
       <c r="S144" s="7">
@@ -14347,8 +14798,11 @@
       <c r="AC144" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:29">
+      <c r="AD144" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:30">
       <c r="B145" t="s">
         <v>57</v>
       </c>
@@ -14397,7 +14851,7 @@
       <c r="Q145" s="2">
         <v>0</v>
       </c>
-      <c r="R145" s="7">
+      <c r="R145" s="2">
         <v>0</v>
       </c>
       <c r="S145" s="7">
@@ -14433,8 +14887,11 @@
       <c r="AC145" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:29">
+      <c r="AD145" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:30">
       <c r="B146" t="s">
         <v>58</v>
       </c>
@@ -14483,7 +14940,7 @@
       <c r="Q146" s="2">
         <v>0</v>
       </c>
-      <c r="R146" s="7">
+      <c r="R146" s="2">
         <v>0</v>
       </c>
       <c r="S146" s="7">
@@ -14519,8 +14976,11 @@
       <c r="AC146" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:29">
+      <c r="AD146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30">
       <c r="B147" t="s">
         <v>59</v>
       </c>
@@ -14569,7 +15029,7 @@
       <c r="Q147" s="2">
         <v>0</v>
       </c>
-      <c r="R147" s="7">
+      <c r="R147" s="2">
         <v>0</v>
       </c>
       <c r="S147" s="7">
@@ -14605,8 +15065,11 @@
       <c r="AC147" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:29">
+      <c r="AD147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:30">
       <c r="B148" t="s">
         <v>66</v>
       </c>
@@ -14655,7 +15118,7 @@
       <c r="Q148" s="2">
         <v>0</v>
       </c>
-      <c r="R148" s="7">
+      <c r="R148" s="2">
         <v>0</v>
       </c>
       <c r="S148" s="7">
@@ -14691,8 +15154,11 @@
       <c r="AC148" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:29">
+      <c r="AD148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:30">
       <c r="B149" t="s">
         <v>60</v>
       </c>
@@ -14741,7 +15207,7 @@
       <c r="Q149" s="2">
         <v>0</v>
       </c>
-      <c r="R149" s="7">
+      <c r="R149" s="2">
         <v>0</v>
       </c>
       <c r="S149" s="7">
@@ -14777,8 +15243,11 @@
       <c r="AC149" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:29">
+      <c r="AD149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30">
       <c r="B150" t="s">
         <v>61</v>
       </c>
@@ -14827,7 +15296,7 @@
       <c r="Q150" s="2">
         <v>0</v>
       </c>
-      <c r="R150" s="7">
+      <c r="R150" s="2">
         <v>0</v>
       </c>
       <c r="S150" s="7">
@@ -14863,8 +15332,11 @@
       <c r="AC150" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:29">
+      <c r="AD150" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30">
       <c r="B151" t="s">
         <v>62</v>
       </c>
@@ -14913,7 +15385,7 @@
       <c r="Q151" s="2">
         <v>0</v>
       </c>
-      <c r="R151" s="7">
+      <c r="R151" s="2">
         <v>0</v>
       </c>
       <c r="S151" s="7">
@@ -14949,8 +15421,11 @@
       <c r="AC151" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:29">
+      <c r="AD151" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:30">
       <c r="B152" t="s">
         <v>63</v>
       </c>
@@ -14999,7 +15474,7 @@
       <c r="Q152" s="2">
         <v>0</v>
       </c>
-      <c r="R152" s="7">
+      <c r="R152" s="2">
         <v>0</v>
       </c>
       <c r="S152" s="7">
@@ -15033,6 +15508,9 @@
         <v>0</v>
       </c>
       <c r="AC152" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15047,7 +15525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF5CAE-BB5B-6143-8852-414EB7DEDD08}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
@@ -15058,7 +15536,7 @@
         <v>132</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>133</v>
@@ -15075,7 +15553,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -15092,7 +15570,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>133</v>
@@ -15109,7 +15587,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -15126,7 +15604,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>133</v>
@@ -15143,7 +15621,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -15160,7 +15638,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -15177,7 +15655,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -15194,7 +15672,7 @@
         <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -15211,7 +15689,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
@@ -15228,7 +15706,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -15245,7 +15723,7 @@
         <v>132</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -15262,7 +15740,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15270,7 +15748,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15278,7 +15756,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15286,7 +15764,7 @@
         <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
@@ -15303,7 +15781,7 @@
         <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -15320,7 +15798,7 @@
         <v>132</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
@@ -15337,7 +15815,7 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -15345,7 +15823,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15353,7 +15831,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -15361,7 +15839,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -15369,7 +15847,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -15377,7 +15855,7 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -15385,7 +15863,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -15393,7 +15871,7 @@
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -15401,7 +15879,7 @@
         <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15409,7 +15887,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15417,7 +15895,7 @@
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15425,7 +15903,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
         <v>133</v>
@@ -15442,7 +15920,7 @@
         <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>133</v>
@@ -15459,7 +15937,7 @@
         <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
         <v>133</v>
@@ -15476,7 +15954,7 @@
         <v>132</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -15493,7 +15971,7 @@
         <v>132</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
         <v>133</v>
@@ -15510,7 +15988,7 @@
         <v>132</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>133</v>
@@ -15527,7 +16005,7 @@
         <v>132</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
@@ -15544,7 +16022,7 @@
         <v>132</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
@@ -15561,7 +16039,7 @@
         <v>132</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -15578,7 +16056,7 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -15586,7 +16064,7 @@
         <v>132</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
         <v>133</v>
@@ -15603,7 +16081,7 @@
         <v>132</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
         <v>133</v>
@@ -15620,7 +16098,7 @@
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -15628,7 +16106,7 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -15636,7 +16114,7 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -15644,7 +16122,7 @@
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -15652,7 +16130,7 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -15660,7 +16138,7 @@
         <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -15668,7 +16146,7 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -15676,7 +16154,7 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -15684,7 +16162,7 @@
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -15692,7 +16170,7 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -15700,7 +16178,7 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15708,7 +16186,7 @@
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15716,7 +16194,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -15724,7 +16202,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15732,7 +16210,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -15740,7 +16218,7 @@
         <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15748,7 +16226,7 @@
         <v>132</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
         <v>133</v>
@@ -15765,7 +16243,7 @@
         <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -15773,7 +16251,7 @@
         <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -15781,7 +16259,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -15789,7 +16267,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -15797,7 +16275,7 @@
         <v>132</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
         <v>133</v>
@@ -15814,7 +16292,7 @@
         <v>132</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
         <v>133</v>
@@ -15831,7 +16309,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
         <v>133</v>
@@ -15848,7 +16326,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
         <v>133</v>
@@ -15865,7 +16343,7 @@
         <v>132</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>133</v>
@@ -15882,7 +16360,7 @@
         <v>132</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
         <v>133</v>
@@ -15899,7 +16377,7 @@
         <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -15907,7 +16385,7 @@
         <v>59</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -15915,7 +16393,7 @@
         <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -15923,7 +16401,7 @@
         <v>132</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
         <v>133</v>
@@ -15940,7 +16418,7 @@
         <v>132</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
         <v>133</v>
@@ -15957,7 +16435,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
         <v>133</v>
@@ -15974,7 +16452,7 @@
         <v>132</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
         <v>133</v>
@@ -15991,7 +16469,7 @@
         <v>132</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
         <v>133</v>
@@ -16008,7 +16486,7 @@
         <v>132</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
         <v>133</v>
@@ -16025,7 +16503,7 @@
         <v>132</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
         <v>133</v>
@@ -16042,7 +16520,7 @@
         <v>132</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
         <v>133</v>
@@ -16059,7 +16537,7 @@
         <v>132</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
         <v>133</v>
@@ -16076,7 +16554,7 @@
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>133</v>
@@ -16093,7 +16571,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
         <v>133</v>
@@ -16110,7 +16588,7 @@
         <v>132</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
         <v>133</v>
@@ -16127,7 +16605,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
         <v>133</v>
@@ -16144,7 +16622,7 @@
         <v>132</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
         <v>133</v>
@@ -16161,7 +16639,7 @@
         <v>132</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>133</v>
@@ -16178,7 +16656,7 @@
         <v>132</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
         <v>133</v>
@@ -16195,7 +16673,7 @@
         <v>132</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
         <v>133</v>
@@ -16212,7 +16690,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
@@ -16229,7 +16707,7 @@
         <v>132</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
         <v>133</v>
@@ -16246,7 +16724,7 @@
         <v>132</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
         <v>133</v>
@@ -16263,7 +16741,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
         <v>133</v>
@@ -16280,7 +16758,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
         <v>133</v>
@@ -16297,7 +16775,7 @@
         <v>132</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
         <v>133</v>
@@ -16314,7 +16792,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
         <v>133</v>
@@ -16378,9 +16856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508F6FE3-3E2F-4383-BBCC-01211F33FEE6}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
@@ -16389,1299 +16865,1299 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>350</v>
+        <v>326</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1">
       <c r="A74" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E76" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E77" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>64</v>
@@ -17689,347 +18165,347 @@
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="18" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="18" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="18" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="18" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="18" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="18" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>191</v>
+        <v>355</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/なのはサントラBOXカラオケ.xlsx
+++ b/xlsx/なのはサントラBOXカラオケ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd24728742b93f64/Repositories/nanoha_karaoke_search/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2471" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F06BFEFD-88A3-4C24-B8E6-4AE5B020F2CD}"/>
+  <xr:revisionPtr revIDLastSave="2474" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2791FB83-5AF2-9442-AC37-C5DA4F5259FE}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2160" windowWidth="28800" windowHeight="15435" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
+    <workbookView xWindow="19380" yWindow="9860" windowWidth="28800" windowHeight="15440" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
   </bookViews>
   <sheets>
     <sheet name="楽曲と対応状況" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="282">
   <si>
     <t>Precious time</t>
   </si>
@@ -1227,6 +1227,9 @@
   <si>
     <t>46789</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4927411</t>
   </si>
 </sst>
 </file>
@@ -1675,35 +1678,35 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="3.875" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
     <col min="7" max="8" width="4.5" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="4.375" customWidth="1"/>
-    <col min="14" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.5" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="4.125" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" customWidth="1"/>
     <col min="21" max="21" width="3.5" customWidth="1"/>
-    <col min="22" max="22" width="4.375" customWidth="1"/>
-    <col min="23" max="23" width="3.875" customWidth="1"/>
-    <col min="24" max="24" width="4.125" customWidth="1"/>
-    <col min="25" max="25" width="4.625" customWidth="1"/>
-    <col min="26" max="26" width="4.375" customWidth="1"/>
-    <col min="27" max="28" width="4.625" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" customWidth="1"/>
+    <col min="27" max="28" width="4.6640625" customWidth="1"/>
     <col min="29" max="29" width="5" customWidth="1"/>
-    <col min="30" max="30" width="5.375" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
@@ -1800,7 +1803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:37">
+    <row r="3" spans="2:37" ht="19">
       <c r="B3" s="7" t="s">
         <v>220</v>
       </c>
@@ -11821,32 +11824,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF5CAE-BB5B-6143-8852-414EB7DEDD08}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="4" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="8" customWidth="1"/>
     <col min="14" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="1" spans="1:11" ht="19" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="2" spans="1:11" ht="19" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>164</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:11" ht="19" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>164</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:11" ht="19" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>164</v>
       </c>
@@ -11942,7 +11945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:11" ht="19" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>164</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:11" ht="19" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>164</v>
       </c>
@@ -12012,7 +12015,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="7" spans="1:11" ht="19" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
@@ -12047,7 +12050,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="8" spans="1:11" ht="19" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>164</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="9" spans="1:11" ht="19" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>164</v>
       </c>
@@ -12117,7 +12120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="10" spans="1:11" ht="19" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>164</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="11" spans="1:11" ht="19" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="12" spans="1:11" ht="19" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>164</v>
       </c>
@@ -12222,7 +12225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="13" spans="1:11" ht="19" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>164</v>
       </c>
@@ -12257,7 +12260,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="14" spans="1:11" ht="19" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>164</v>
       </c>
@@ -12292,7 +12295,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:11" ht="19" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>164</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="16" spans="1:11" ht="19" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>164</v>
       </c>
@@ -12362,7 +12365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="17" spans="1:11" ht="19" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="18" spans="1:11" ht="19" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>164</v>
       </c>
@@ -12432,7 +12435,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="19" spans="1:11" ht="19" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>164</v>
       </c>
@@ -12467,7 +12470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="20" spans="1:11" ht="19" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>164</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="21" spans="1:11" ht="19" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>164</v>
       </c>
@@ -12537,7 +12540,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="22" spans="1:11" ht="19" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>164</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="23" spans="1:11" ht="19" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>164</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="24" spans="1:11" ht="19" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>164</v>
       </c>
@@ -12642,7 +12645,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="25" spans="1:11" ht="19" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>164</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="26" spans="1:11" ht="19" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>164</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="27" spans="1:11" ht="19" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>164</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="28" spans="1:11" ht="19" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>164</v>
       </c>
@@ -12773,7 +12776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="29" spans="1:11" ht="19" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>164</v>
       </c>
@@ -12808,7 +12811,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="30" spans="1:11" ht="19" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>164</v>
       </c>
@@ -12843,7 +12846,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="31" spans="1:11" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>164</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:11" ht="19" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>164</v>
       </c>
@@ -12913,7 +12916,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:11" ht="19" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>164</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:11" ht="19" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>161</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:11" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>161</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:11" ht="19" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>161</v>
       </c>
@@ -13038,7 +13041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:11" ht="19" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>161</v>
       </c>
@@ -13070,7 +13073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:11" ht="19" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>161</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:11" ht="19" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>161</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:11" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:11" ht="19" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>161</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:11" ht="19" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>161</v>
       </c>
@@ -13236,7 +13239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:11" ht="19" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>161</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:11" ht="19" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>161</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:11" ht="19" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>161</v>
       </c>
@@ -13335,7 +13338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:11" ht="19" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>161</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:11" ht="19" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>161</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:11" ht="19" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>161</v>
       </c>
@@ -13428,7 +13431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:11" ht="19" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>161</v>
       </c>
@@ -13463,7 +13466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:11" ht="19" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>161</v>
       </c>
@@ -13498,7 +13501,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:11" ht="19" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>161</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:11" ht="19" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>161</v>
       </c>
@@ -13562,7 +13565,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:11" ht="19" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>161</v>
       </c>
@@ -13591,7 +13594,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:11" ht="19" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>161</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:11" ht="19" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>161</v>
       </c>
@@ -13649,7 +13652,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:11" ht="19" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>161</v>
       </c>
@@ -13678,7 +13681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:11" ht="19" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>161</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:11" ht="19" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -13736,7 +13739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:11" ht="19" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:11" ht="19" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>161</v>
       </c>
@@ -13794,7 +13797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:11" ht="19" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>161</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:11" ht="19" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>161</v>
       </c>
@@ -13852,7 +13855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:11" ht="19" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>161</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:11" ht="19" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>161</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:11" ht="19" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -13957,7 +13960,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:11" ht="19" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>161</v>
       </c>
@@ -13992,7 +13995,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:11" ht="19" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:11" ht="19" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>161</v>
       </c>
@@ -14062,7 +14065,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:11" ht="19" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>161</v>
       </c>
@@ -14097,7 +14100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:11" ht="19" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>161</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:11" ht="19" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>161</v>
       </c>
@@ -14167,7 +14170,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:11" ht="19" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>161</v>
       </c>
@@ -14196,7 +14199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:11" ht="19" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>161</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:11" ht="19" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>161</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:11" ht="19" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>161</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:11" ht="19" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>161</v>
       </c>
@@ -14318,7 +14321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:11" ht="19" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>161</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:11" ht="19" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>161</v>
       </c>
@@ -14376,7 +14379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:11" ht="19" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>161</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:11" ht="19" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>161</v>
       </c>
@@ -14434,7 +14437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="81" spans="1:11" ht="19" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>161</v>
       </c>
@@ -14463,7 +14466,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="82" spans="1:11" ht="19" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>161</v>
       </c>
@@ -14492,7 +14495,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="83" spans="1:11" ht="19" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>161</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="1:11" ht="19" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>161</v>
       </c>
@@ -14550,7 +14553,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="1:11" ht="19" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>161</v>
       </c>
@@ -14579,7 +14582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:11" ht="19" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>161</v>
       </c>
@@ -14608,7 +14611,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:11" ht="19" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>161</v>
       </c>
@@ -14633,11 +14636,14 @@
       <c r="I87" s="8" t="s">
         <v>224</v>
       </c>
+      <c r="J87" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="K87" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:11" ht="19" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>161</v>
       </c>
@@ -14666,7 +14672,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:11" ht="19" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>161</v>
       </c>
@@ -14695,7 +14701,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:11" ht="19" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>161</v>
       </c>
@@ -14724,7 +14730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:11" ht="19" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>161</v>
       </c>
@@ -14759,7 +14765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:11" ht="19" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>161</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:11" ht="19" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>161</v>
       </c>
@@ -14817,7 +14823,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="94" spans="1:11" ht="19" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>161</v>
       </c>
@@ -14846,7 +14852,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="95" spans="1:11" ht="19" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>161</v>
       </c>
@@ -14875,7 +14881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="96" spans="1:11" ht="19" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>161</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="97" spans="1:11" ht="19" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>161</v>
       </c>
@@ -14939,7 +14945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="98" spans="1:11" ht="19" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>161</v>
       </c>
@@ -14971,7 +14977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="99" spans="1:11" ht="19" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>161</v>
       </c>
@@ -15003,7 +15009,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="100" spans="1:11" ht="19" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>161</v>
       </c>
@@ -15035,7 +15041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="101" spans="1:11" ht="19" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>161</v>
       </c>
@@ -15067,7 +15073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="102" spans="1:11" ht="19" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>161</v>
       </c>
@@ -15096,7 +15102,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="103" spans="1:11" ht="19" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>161</v>
       </c>
@@ -15125,7 +15131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="104" spans="1:11" ht="19" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>161</v>
       </c>
@@ -15154,7 +15160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="105" spans="1:11" ht="19" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>161</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="106" spans="1:11" ht="19" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>161</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="107" spans="1:11" ht="19" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>161</v>
       </c>
@@ -15250,7 +15256,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="108" spans="1:11" ht="19" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>161</v>
       </c>
@@ -15282,7 +15288,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="18.95" customHeight="1">
+    <row r="109" spans="1:11" ht="19" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>162</v>
       </c>
@@ -15403,9 +15409,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">

--- a/xlsx/なのはサントラBOXカラオケ.xlsx
+++ b/xlsx/なのはサントラBOXカラオケ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd24728742b93f64/Repositories/nanoha_karaoke_search/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2474" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2791FB83-5AF2-9442-AC37-C5DA4F5259FE}"/>
+  <xr:revisionPtr revIDLastSave="2723" documentId="13_ncr:1_{14FD29E9-45B8-4C91-BD42-77B011A00161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFC58C65-2A0C-9A48-8EAE-38EEC9C7EFA2}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="9860" windowWidth="28800" windowHeight="15440" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
+    <workbookView xWindow="26860" yWindow="460" windowWidth="26880" windowHeight="31180" xr2:uid="{9E885C0F-C221-4AD9-8B9B-02C52BE595B2}"/>
   </bookViews>
   <sheets>
     <sheet name="楽曲と対応状況" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="415">
   <si>
     <t>Precious time</t>
   </si>
@@ -1231,12 +1231,544 @@
   <si>
     <t>4927411</t>
   </si>
+  <si>
+    <t>","JOYpersonal":"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>","JOYstandard":"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>","JOYguiter":"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>","JOYhome":"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>","DAMreqyest":"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65127</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>907498</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>77929</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>908291</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>78044</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>908297</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>909905</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120982</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>909997</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>162268</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>912619</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>165048</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>964707</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>162880</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>164833</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>166697</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>911077</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>156094</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>974619</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>672944</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>974576</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>689775</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>690957</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139606</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>910752</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139607</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31347</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>913825</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>199149</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>199170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>696427</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>697170</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>432598</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>433006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127903</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29492</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>913338</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>147768</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>136495</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127206</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>138224</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>179594</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129644</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>78286</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>137501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>138004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>168319</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1282550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>173328</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100242</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>168794</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>175972</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>929990</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>929991</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>164563</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>171844</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>171845</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>171846</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>171286</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>930969</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>148969</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129725</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>147815</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>726088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>699005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>434380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>434375</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>434374</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>434373</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>685782</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>445528</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>445527</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>445525</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>445532</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3654-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2635-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2989-99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2989-97</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2989-81</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2916-86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2916-71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2916-78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2928-89</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2899-40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1350-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2355-26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2911-55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2842-64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2911-45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2098-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4886-87</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2075-68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4886-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4875-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4875-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4871-84</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4871-86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4888-39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2085-47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4888-46</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4885-98</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2075-64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4885-99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3769-75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3771-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2085-85</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4871-48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2075-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2075-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1959-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7050-78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4714-04</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1808,14 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1323,7 +1863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,6 +1892,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11822,7 +12365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF5CAE-BB5B-6143-8852-414EB7DEDD08}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11836,20 +12379,30 @@
     <col min="6" max="6" width="27.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="4" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="8"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15" style="8" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="8" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="11" style="8"/>
+    <col min="21" max="21" width="3" style="8" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="8.1640625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" customHeight="1">
+    <row r="1" spans="1:24" ht="19" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" customHeight="1">
+    <row r="2" spans="1:24" ht="19" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>164</v>
       </c>
@@ -11869,13 +12422,28 @@
         <v>223</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="S2" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19" customHeight="1">
+    <row r="3" spans="1:24" ht="19" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>164</v>
       </c>
@@ -11901,16 +12469,47 @@
         <v>280</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3">
+        <v>760887</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3">
+        <v>65127</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="9">
+      <c r="R3" s="9">
         <v>2859307</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="S3" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19" customHeight="1">
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" ht="19" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>164</v>
       </c>
@@ -11936,16 +12535,44 @@
         <v>58792</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4">
+        <v>77929</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J4" s="9">
+      <c r="R4" s="9">
         <v>2860211</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="S4" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="19" customHeight="1">
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" ht="19" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>164</v>
       </c>
@@ -11971,16 +12598,44 @@
         <v>58907</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5">
+        <v>78044</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="9">
+      <c r="R5" s="9">
         <v>3717883</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="S5" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="U5" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="19" customHeight="1">
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" ht="19" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>164</v>
       </c>
@@ -12006,16 +12661,47 @@
         <v>72465</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>760892</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P6">
+        <v>121040</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J6" s="9">
+      <c r="R6" s="9">
         <v>3639657</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="S6" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="19" customHeight="1">
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" ht="19" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
@@ -12041,16 +12727,41 @@
         <v>72407</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7">
+        <v>120982</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J7" s="9">
+      <c r="R7" s="9">
         <v>3631970</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="19" customHeight="1">
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" ht="19" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>164</v>
       </c>
@@ -12076,16 +12787,44 @@
         <v>77843</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P8">
+        <v>123002</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="9">
+      <c r="R8" s="9">
         <v>3831488</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="19" customHeight="1">
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" ht="19" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>164</v>
       </c>
@@ -12111,16 +12850,47 @@
         <v>101217</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9">
+        <v>760900</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P9">
+        <v>162268</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="9">
+      <c r="R9" s="9">
         <v>4376574</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="S9" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="U9" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="19" customHeight="1">
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" ht="19" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>164</v>
       </c>
@@ -12146,16 +12916,47 @@
         <v>106819</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J10">
+        <v>760902</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10">
+        <v>165048</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J10" s="9">
+      <c r="R10" s="9">
         <v>4512762</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="S10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="19" customHeight="1">
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" ht="19" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -12181,16 +12982,41 @@
         <v>103351</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11">
+        <v>162880</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="9">
+      <c r="R11" s="9">
         <v>4438334</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="S11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="U11" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="19" customHeight="1">
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" ht="19" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>164</v>
       </c>
@@ -12216,16 +13042,41 @@
         <v>106457</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12">
+        <v>164833</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J12" s="9">
+      <c r="R12" s="9">
         <v>4498620</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="S12" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="19" customHeight="1">
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" ht="19" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>164</v>
       </c>
@@ -12251,16 +13102,44 @@
         <v>109321</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13">
+        <v>166697</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="9">
+      <c r="R13" s="9">
         <v>4623210</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="S13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="19" customHeight="1">
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24" ht="19" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>164</v>
       </c>
@@ -12286,16 +13165,47 @@
         <v>419962</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14">
+        <v>715804</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14">
+        <v>156094</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J14" s="9">
+      <c r="R14" s="9">
         <v>5555837</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="S14" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="U14" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="19" customHeight="1">
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" ht="19" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>164</v>
       </c>
@@ -12321,16 +13231,44 @@
         <v>419289</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P15">
+        <v>672944</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J15" s="9">
+      <c r="R15" s="9">
         <v>5546528</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="S15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="U15" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="19" customHeight="1">
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" ht="19" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>164</v>
       </c>
@@ -12356,16 +13294,44 @@
         <v>593642</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J16">
+        <v>896635</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16">
+        <v>689775</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J16" s="9">
+      <c r="R16" s="9">
         <v>5640382</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="S16" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" customHeight="1">
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24" ht="19" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
@@ -12391,16 +13357,41 @@
         <v>593646</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17">
+        <v>690957</v>
+      </c>
+      <c r="Q17" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J17" s="9">
+      <c r="R17" s="9">
         <v>5641595</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="S17" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="U17" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="19" customHeight="1">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" ht="19" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>164</v>
       </c>
@@ -12426,16 +13417,47 @@
         <v>146556</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18">
+        <v>190888</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P18">
+        <v>139606</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J18" s="9">
+      <c r="R18" s="9">
         <v>4856016</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="S18" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="U18" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" customHeight="1">
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" ht="19" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>164</v>
       </c>
@@ -12461,16 +13483,41 @@
         <v>147359</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P19">
+        <v>127106</v>
+      </c>
+      <c r="Q19" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="9">
+      <c r="R19" s="9">
         <v>4860301</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="S19" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1">
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" ht="19" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>164</v>
       </c>
@@ -12496,16 +13543,41 @@
         <v>146557</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P20">
+        <v>139607</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J20" s="9">
+      <c r="R20" s="9">
         <v>4856112</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="S20" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="U20" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" customHeight="1">
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" ht="19" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>164</v>
       </c>
@@ -12531,16 +13603,47 @@
         <v>231845</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J21">
+        <v>193043</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P21">
+        <v>31347</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J21" s="9">
+      <c r="R21" s="9">
         <v>5160182</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="S21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="U21" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" customHeight="1">
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" ht="19" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>164</v>
       </c>
@@ -12566,16 +13669,41 @@
         <v>232217</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P22">
+        <v>199149</v>
+      </c>
+      <c r="Q22" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="9">
+      <c r="R22" s="9">
         <v>5167886</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="S22" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" customHeight="1">
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" ht="19" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>164</v>
       </c>
@@ -12601,16 +13729,41 @@
         <v>231879</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23">
+        <v>199170</v>
+      </c>
+      <c r="Q23" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="9">
+      <c r="R23" s="9">
         <v>5160187</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="S23" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="U23" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="19" customHeight="1">
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" ht="19" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>164</v>
       </c>
@@ -12636,16 +13789,44 @@
         <v>631724</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24">
+        <v>715818</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24">
+        <v>696427</v>
+      </c>
+      <c r="Q24" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J24" s="9">
+      <c r="R24" s="9">
         <v>5685070</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="S24" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="U24" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="19" customHeight="1">
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" ht="19" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>164</v>
       </c>
@@ -12671,16 +13852,41 @@
         <v>635267</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25">
+        <v>697170</v>
+      </c>
+      <c r="Q25" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="9">
+      <c r="R25" s="9">
         <v>5685071</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="S25" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="U25" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="19" customHeight="1">
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24" ht="19" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>164</v>
       </c>
@@ -12706,16 +13912,44 @@
         <v>707174</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26">
+        <v>715806</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26">
+        <v>432598</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J26" s="9">
+      <c r="R26" s="9">
         <v>5753207</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="S26" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="U26" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="19" customHeight="1">
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" ht="19" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>164</v>
       </c>
@@ -12741,16 +13975,41 @@
         <v>707175</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P27">
+        <v>433006</v>
+      </c>
+      <c r="Q27" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J27" s="9">
+      <c r="R27" s="9">
         <v>5756142</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="S27" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="U27" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="19" customHeight="1">
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" ht="19" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>164</v>
       </c>
@@ -12770,13 +14029,28 @@
         <v>223</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q28" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="S28" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U28" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19" customHeight="1">
+    <row r="29" spans="1:24" ht="19" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>164</v>
       </c>
@@ -12802,16 +14076,44 @@
         <v>147208</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29">
+        <v>700665</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P29">
+        <v>127004</v>
+      </c>
+      <c r="Q29" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J29" s="9">
+      <c r="R29" s="9">
         <v>4862039</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="S29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="U29" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" customHeight="1">
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" ht="19" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>164</v>
       </c>
@@ -12837,16 +14139,41 @@
         <v>149002</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P30">
+        <v>127903</v>
+      </c>
+      <c r="Q30" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J30" s="9">
+      <c r="R30" s="9">
         <v>4861977</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="S30" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="U30" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" customHeight="1">
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" ht="19" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>164</v>
       </c>
@@ -12872,16 +14199,44 @@
         <v>185738</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P31">
+        <v>29492</v>
+      </c>
+      <c r="Q31" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J31" s="9">
+      <c r="R31" s="9">
         <v>5088153</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="S31" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="U31" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" customHeight="1">
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" ht="19" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>164</v>
       </c>
@@ -12907,16 +14262,41 @@
         <v>223160</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P32">
+        <v>147768</v>
+      </c>
+      <c r="Q32" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="9">
+      <c r="R32" s="9">
         <v>5764600</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="S32" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="U32" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="19" customHeight="1">
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" ht="19" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>164</v>
       </c>
@@ -12936,13 +14316,28 @@
         <v>223</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q33" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="S33" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U33" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19" customHeight="1">
+    <row r="34" spans="1:24" ht="19" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>161</v>
       </c>
@@ -12968,13 +14363,31 @@
         <v>133440</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q34" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="S34" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U34" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="19" customHeight="1">
+    <row r="35" spans="1:24" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>161</v>
       </c>
@@ -13000,13 +14413,31 @@
         <v>147598</v>
       </c>
       <c r="I35" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q35" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="S35" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U35" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19" customHeight="1">
+    <row r="36" spans="1:24" ht="19" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>161</v>
       </c>
@@ -13032,16 +14463,38 @@
         <v>143839</v>
       </c>
       <c r="I36" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J36" s="9">
+      <c r="R36" s="9">
         <v>4563991</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="S36" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="U36" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="19" customHeight="1">
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" ht="19" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>161</v>
       </c>
@@ -13067,13 +14520,31 @@
         <v>129899</v>
       </c>
       <c r="I37" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="S37" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U37" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19" customHeight="1">
+    <row r="38" spans="1:24" ht="19" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>161</v>
       </c>
@@ -13099,13 +14570,31 @@
         <v>152297</v>
       </c>
       <c r="I38" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q38" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="S38" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U38" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19" customHeight="1">
+    <row r="39" spans="1:24" ht="19" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>161</v>
       </c>
@@ -13131,16 +14620,41 @@
         <v>59149</v>
       </c>
       <c r="I39" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P39">
+        <v>78286</v>
+      </c>
+      <c r="Q39" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="9">
+      <c r="R39" s="9">
         <v>3777902</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="S39" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="U39" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="19" customHeight="1">
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -13166,13 +14680,34 @@
         <v>142365</v>
       </c>
       <c r="I40" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P40">
+        <v>137501</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="S40" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U40" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19" customHeight="1">
+    <row r="41" spans="1:24" ht="19" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>161</v>
       </c>
@@ -13198,13 +14733,31 @@
         <v>143470</v>
       </c>
       <c r="I41" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="S41" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U41" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19" customHeight="1">
+    <row r="42" spans="1:24" ht="19" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>161</v>
       </c>
@@ -13230,16 +14783,41 @@
         <v>111987</v>
       </c>
       <c r="I42" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P42">
+        <v>168319</v>
+      </c>
+      <c r="Q42" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J42" s="9">
+      <c r="R42" s="9">
         <v>4563992</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="S42" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="U42" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="19" customHeight="1">
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" ht="19" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>161</v>
       </c>
@@ -13265,13 +14843,34 @@
         <v>149726</v>
       </c>
       <c r="I43" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P43">
+        <v>128250</v>
+      </c>
+      <c r="Q43" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="S43" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U43" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="19" customHeight="1">
+    <row r="44" spans="1:24" ht="19" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>161</v>
       </c>
@@ -13297,16 +14896,38 @@
         <v>118346</v>
       </c>
       <c r="I44" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q44" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J44" s="9">
+      <c r="R44" s="9">
         <v>3823184</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="S44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U44" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="19" customHeight="1">
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" ht="19" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>161</v>
       </c>
@@ -13332,13 +14953,34 @@
         <v>153189</v>
       </c>
       <c r="I45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P45">
+        <v>100242</v>
+      </c>
+      <c r="Q45" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="S45" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U45" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19" customHeight="1">
+    <row r="46" spans="1:24" ht="19" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>161</v>
       </c>
@@ -13361,13 +15003,28 @@
         <v>223</v>
       </c>
       <c r="I46" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q46" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="S46" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U46" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19" customHeight="1">
+    <row r="47" spans="1:24" ht="19" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>161</v>
       </c>
@@ -13390,16 +15047,35 @@
         <v>223</v>
       </c>
       <c r="I47" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q47" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J47" s="9">
+      <c r="R47" s="9">
         <v>3861531</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="S47" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="U47" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="19" customHeight="1">
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" ht="19" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>161</v>
       </c>
@@ -13422,16 +15098,35 @@
         <v>223</v>
       </c>
       <c r="I48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q48" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J48" s="9">
+      <c r="R48" s="9">
         <v>3943214</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="S48" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="U48" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="19" customHeight="1">
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="1:24" ht="19" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>161</v>
       </c>
@@ -13457,16 +15152,41 @@
         <v>151560</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P49">
+        <v>129256</v>
+      </c>
+      <c r="Q49" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J49" s="9">
+      <c r="R49" s="9">
         <v>4582425</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="S49" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="U49" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="19" customHeight="1">
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" ht="19" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>161</v>
       </c>
@@ -13492,16 +15212,41 @@
         <v>112696</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50">
+        <v>168704</v>
+      </c>
+      <c r="Q50" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J50" s="9">
+      <c r="R50" s="9">
         <v>4582423</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="S50" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="U50" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="19" customHeight="1">
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" ht="19" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>161</v>
       </c>
@@ -13527,16 +15272,41 @@
         <v>123266</v>
       </c>
       <c r="I51" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P51">
+        <v>175972</v>
+      </c>
+      <c r="Q51" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J51" s="9">
+      <c r="R51" s="9">
         <v>4582424</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="S51" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="U51" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="19" customHeight="1">
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="1:24" ht="19" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>161</v>
       </c>
@@ -13559,13 +15329,28 @@
         <v>223</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q52" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="S52" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U52" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="19" customHeight="1">
+    <row r="53" spans="1:24" ht="19" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>161</v>
       </c>
@@ -13588,13 +15373,28 @@
         <v>223</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q53" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="S53" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U53" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="19" customHeight="1">
+    <row r="54" spans="1:24" ht="19" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>161</v>
       </c>
@@ -13617,13 +15417,28 @@
         <v>223</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q54" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="S54" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U54" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19" customHeight="1">
+    <row r="55" spans="1:24" ht="19" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>161</v>
       </c>
@@ -13646,13 +15461,28 @@
         <v>223</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q55" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="S55" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U55" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19" customHeight="1">
+    <row r="56" spans="1:24" ht="19" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>161</v>
       </c>
@@ -13675,13 +15505,28 @@
         <v>223</v>
       </c>
       <c r="I56" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q56" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="S56" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U56" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19" customHeight="1">
+    <row r="57" spans="1:24" ht="19" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>161</v>
       </c>
@@ -13704,13 +15549,28 @@
         <v>223</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q57" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="S57" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U57" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="19" customHeight="1">
+    <row r="58" spans="1:24" ht="19" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>161</v>
       </c>
@@ -13733,13 +15593,28 @@
         <v>223</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="S58" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U58" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="19" customHeight="1">
+    <row r="59" spans="1:24" ht="19" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>161</v>
       </c>
@@ -13762,13 +15637,28 @@
         <v>223</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q59" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="S59" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U59" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="19" customHeight="1">
+    <row r="60" spans="1:24" ht="19" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>161</v>
       </c>
@@ -13791,13 +15681,28 @@
         <v>223</v>
       </c>
       <c r="I60" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q60" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="S60" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U60" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="19" customHeight="1">
+    <row r="61" spans="1:24" ht="19" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>161</v>
       </c>
@@ -13820,13 +15725,28 @@
         <v>223</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q61" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="S61" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U61" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19" customHeight="1">
+    <row r="62" spans="1:24" ht="19" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>161</v>
       </c>
@@ -13849,13 +15769,28 @@
         <v>223</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q62" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="S62" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U62" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19" customHeight="1">
+    <row r="63" spans="1:24" ht="19" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>161</v>
       </c>
@@ -13881,16 +15816,38 @@
         <v>201820</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q63" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J63" s="9">
+      <c r="R63" s="9">
         <v>4574332</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="S63" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="U63" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="19" customHeight="1">
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="1:24" ht="19" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>161</v>
       </c>
@@ -13916,16 +15873,38 @@
         <v>201821</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q64" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J64" s="9">
+      <c r="R64" s="9">
         <v>4574333</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="S64" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="U64" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="19" customHeight="1">
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" spans="1:24" ht="19" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
@@ -13951,16 +15930,41 @@
         <v>106023</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P65">
+        <v>164563</v>
+      </c>
+      <c r="Q65" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J65" s="9">
+      <c r="R65" s="9">
         <v>4574334</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="S65" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="U65" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="19" customHeight="1">
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" spans="1:24" ht="19" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>161</v>
       </c>
@@ -13986,16 +15990,41 @@
         <v>115868</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P66">
+        <v>171844</v>
+      </c>
+      <c r="Q66" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J66" s="9">
+      <c r="R66" s="9">
         <v>4589471</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="S66" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="U66" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="19" customHeight="1">
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="1:24" ht="19" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
@@ -14021,16 +16050,41 @@
         <v>115869</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P67">
+        <v>171845</v>
+      </c>
+      <c r="Q67" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J67" s="9">
+      <c r="R67" s="9">
         <v>4589472</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="S67" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="U67" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="19" customHeight="1">
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" spans="1:24" ht="19" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>161</v>
       </c>
@@ -14056,16 +16110,41 @@
         <v>115870</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P68">
+        <v>171846</v>
+      </c>
+      <c r="Q68" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J68" s="9">
+      <c r="R68" s="9">
         <v>4589473</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="S68" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="U68" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="19" customHeight="1">
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="1:24" ht="19" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>161</v>
       </c>
@@ -14091,16 +16170,41 @@
         <v>115074</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P69">
+        <v>171286</v>
+      </c>
+      <c r="Q69" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J69" s="9">
+      <c r="R69" s="9">
         <v>4668434</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="S69" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="U69" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="19" customHeight="1">
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" spans="1:24" ht="19" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>161</v>
       </c>
@@ -14126,16 +16230,38 @@
         <v>202799</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q70" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J70" s="9">
+      <c r="R70" s="9">
         <v>4668446</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="S70" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="U70" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="19" customHeight="1">
+      <c r="X70" s="9"/>
+    </row>
+    <row r="71" spans="1:24" ht="19" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>161</v>
       </c>
@@ -14161,16 +16287,41 @@
         <v>225462</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P71">
+        <v>148969</v>
+      </c>
+      <c r="Q71" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J71" s="9">
+      <c r="R71" s="9">
         <v>4668447</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="S71" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="U71" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="19" customHeight="1">
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="1:24" ht="19" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>161</v>
       </c>
@@ -14193,13 +16344,28 @@
         <v>223</v>
       </c>
       <c r="I72" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q72" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="S72" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U72" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="19" customHeight="1">
+    <row r="73" spans="1:24" ht="19" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>161</v>
       </c>
@@ -14225,13 +16391,34 @@
         <v>152422</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P73">
+        <v>129725</v>
+      </c>
+      <c r="Q73" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="S73" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U73" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="19" customHeight="1">
+    <row r="74" spans="1:24" ht="19" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>161</v>
       </c>
@@ -14257,13 +16444,34 @@
         <v>223227</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P74">
+        <v>147815</v>
+      </c>
+      <c r="Q74" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="S74" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U74" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="19" customHeight="1">
+    <row r="75" spans="1:24" ht="19" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>161</v>
       </c>
@@ -14286,13 +16494,28 @@
         <v>223</v>
       </c>
       <c r="I75" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q75" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="S75" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U75" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="19" customHeight="1">
+    <row r="76" spans="1:24" ht="19" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>161</v>
       </c>
@@ -14315,13 +16538,28 @@
         <v>223</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q76" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="S76" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U76" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="19" customHeight="1">
+    <row r="77" spans="1:24" ht="19" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>161</v>
       </c>
@@ -14344,13 +16582,28 @@
         <v>223</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q77" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="S77" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U77" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19" customHeight="1">
+    <row r="78" spans="1:24" ht="19" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>161</v>
       </c>
@@ -14373,13 +16626,28 @@
         <v>223</v>
       </c>
       <c r="I78" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q78" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="S78" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U78" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="19" customHeight="1">
+    <row r="79" spans="1:24" ht="19" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>161</v>
       </c>
@@ -14402,13 +16670,28 @@
         <v>223</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q79" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="S79" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U79" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19" customHeight="1">
+    <row r="80" spans="1:24" ht="19" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>161</v>
       </c>
@@ -14431,13 +16714,28 @@
         <v>223</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q80" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="S80" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U80" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="19" customHeight="1">
+    <row r="81" spans="1:24" ht="19" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>161</v>
       </c>
@@ -14460,13 +16758,28 @@
         <v>223</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q81" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="S81" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U81" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="19" customHeight="1">
+    <row r="82" spans="1:24" ht="19" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>161</v>
       </c>
@@ -14489,13 +16802,28 @@
         <v>223</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q82" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="S82" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U82" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="19" customHeight="1">
+    <row r="83" spans="1:24" ht="19" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>161</v>
       </c>
@@ -14518,13 +16846,28 @@
         <v>223</v>
       </c>
       <c r="I83" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q83" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="S83" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U83" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="19" customHeight="1">
+    <row r="84" spans="1:24" ht="19" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>161</v>
       </c>
@@ -14547,13 +16890,28 @@
         <v>223</v>
       </c>
       <c r="I84" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q84" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="S84" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U84" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="19" customHeight="1">
+    <row r="85" spans="1:24" ht="19" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>161</v>
       </c>
@@ -14576,13 +16934,28 @@
         <v>223</v>
       </c>
       <c r="I85" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q85" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="S85" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U85" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="19" customHeight="1">
+    <row r="86" spans="1:24" ht="19" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>161</v>
       </c>
@@ -14605,13 +16978,28 @@
         <v>223</v>
       </c>
       <c r="I86" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O86" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q86" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="S86" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U86" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="19" customHeight="1">
+    <row r="87" spans="1:24" ht="19" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>161</v>
       </c>
@@ -14634,16 +17022,34 @@
         <v>223</v>
       </c>
       <c r="I87" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q87" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="R87" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="S87" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="U87" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="19" customHeight="1">
+    <row r="88" spans="1:24" ht="19" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>161</v>
       </c>
@@ -14666,13 +17072,28 @@
         <v>223</v>
       </c>
       <c r="I88" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q88" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="S88" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U88" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="19" customHeight="1">
+    <row r="89" spans="1:24" ht="19" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>161</v>
       </c>
@@ -14695,13 +17116,28 @@
         <v>223</v>
       </c>
       <c r="I89" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q89" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="S89" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U89" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="19" customHeight="1">
+    <row r="90" spans="1:24" ht="19" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>161</v>
       </c>
@@ -14724,13 +17160,28 @@
         <v>223</v>
       </c>
       <c r="I90" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q90" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="S90" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U90" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="19" customHeight="1">
+    <row r="91" spans="1:24" ht="19" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>161</v>
       </c>
@@ -14756,16 +17207,41 @@
         <v>255117</v>
       </c>
       <c r="I91" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P91">
+        <v>726088</v>
+      </c>
+      <c r="Q91" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="J91" s="9">
+      <c r="R91" s="9">
         <v>5385394</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="S91" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="U91" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="19" customHeight="1">
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="1:24" ht="19" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>161</v>
       </c>
@@ -14788,13 +17264,28 @@
         <v>223</v>
       </c>
       <c r="I92" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O92" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q92" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="S92" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U92" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="19" customHeight="1">
+    <row r="93" spans="1:24" ht="19" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>161</v>
       </c>
@@ -14817,13 +17308,28 @@
         <v>223</v>
       </c>
       <c r="I93" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q93" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="S93" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U93" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="19" customHeight="1">
+    <row r="94" spans="1:24" ht="19" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>161</v>
       </c>
@@ -14846,13 +17352,28 @@
         <v>223</v>
       </c>
       <c r="I94" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q94" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="S94" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U94" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="19" customHeight="1">
+    <row r="95" spans="1:24" ht="19" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>161</v>
       </c>
@@ -14875,13 +17396,28 @@
         <v>223</v>
       </c>
       <c r="I95" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q95" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="S95" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U95" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="19" customHeight="1">
+    <row r="96" spans="1:24" ht="19" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>161</v>
       </c>
@@ -14907,13 +17443,31 @@
         <v>636990</v>
       </c>
       <c r="I96" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q96" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="S96" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U96" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19" customHeight="1">
+    <row r="97" spans="1:21" ht="19" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>161</v>
       </c>
@@ -14939,13 +17493,31 @@
         <v>711893</v>
       </c>
       <c r="I97" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O97" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q97" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="S97" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U97" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19" customHeight="1">
+    <row r="98" spans="1:21" ht="19" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>161</v>
       </c>
@@ -14971,13 +17543,31 @@
         <v>721289</v>
       </c>
       <c r="I98" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q98" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="S98" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U98" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19" customHeight="1">
+    <row r="99" spans="1:21" ht="19" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>161</v>
       </c>
@@ -15003,13 +17593,31 @@
         <v>721290</v>
       </c>
       <c r="I99" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O99" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q99" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="S99" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U99" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19" customHeight="1">
+    <row r="100" spans="1:21" ht="19" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>161</v>
       </c>
@@ -15035,13 +17643,31 @@
         <v>721291</v>
       </c>
       <c r="I100" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q100" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="S100" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U100" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19" customHeight="1">
+    <row r="101" spans="1:21" ht="19" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>161</v>
       </c>
@@ -15067,13 +17693,31 @@
         <v>553697</v>
       </c>
       <c r="I101" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q101" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="S101" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U101" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19" customHeight="1">
+    <row r="102" spans="1:21" ht="19" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>161</v>
       </c>
@@ -15096,13 +17740,28 @@
         <v>223</v>
       </c>
       <c r="I102" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q102" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="S102" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U102" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19" customHeight="1">
+    <row r="103" spans="1:21" ht="19" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>161</v>
       </c>
@@ -15125,13 +17784,28 @@
         <v>223</v>
       </c>
       <c r="I103" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O103" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q103" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="S103" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U103" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19" customHeight="1">
+    <row r="104" spans="1:21" ht="19" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>161</v>
       </c>
@@ -15154,13 +17828,28 @@
         <v>223</v>
       </c>
       <c r="I104" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q104" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="S104" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U104" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19" customHeight="1">
+    <row r="105" spans="1:21" ht="19" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>161</v>
       </c>
@@ -15186,13 +17875,31 @@
         <v>811996</v>
       </c>
       <c r="I105" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q105" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="S105" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U105" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19" customHeight="1">
+    <row r="106" spans="1:21" ht="19" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>161</v>
       </c>
@@ -15218,13 +17925,34 @@
         <v>811997</v>
       </c>
       <c r="I106" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P106">
+        <v>445527</v>
+      </c>
+      <c r="Q106" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="S106" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U106" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19" customHeight="1">
+    <row r="107" spans="1:21" ht="19" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>161</v>
       </c>
@@ -15250,13 +17978,34 @@
         <v>813393</v>
       </c>
       <c r="I107" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P107">
+        <v>445525</v>
+      </c>
+      <c r="Q107" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="S107" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U107" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19" customHeight="1">
+    <row r="108" spans="1:21" ht="19" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>161</v>
       </c>
@@ -15282,13 +18031,34 @@
         <v>793589</v>
       </c>
       <c r="I108" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P108">
+        <v>445532</v>
+      </c>
+      <c r="Q108" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="S108" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="U108" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19" customHeight="1">
+    <row r="109" spans="1:21" ht="19" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>162</v>
       </c>
@@ -15333,68 +18103,68 @@
     <hyperlink ref="H105" r:id="rId35" display="https://www.joysound.com/web/search/song/811996" xr:uid="{C47F33F8-7449-4ED0-8FCC-518C0C9291AE}"/>
     <hyperlink ref="H106" r:id="rId36" display="https://www.joysound.com/web/search/song/811997" xr:uid="{1B68A113-9206-4F35-8EC8-B1A36344E7D7}"/>
     <hyperlink ref="H108" r:id="rId37" display="https://www.joysound.com/web/search/song/793589" xr:uid="{7B4C6B61-806C-4E93-B602-F47ADE0E5E13}"/>
-    <hyperlink ref="J36" r:id="rId38" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4563991" xr:uid="{E5E1B806-256C-C74B-982F-B8D834A0B303}"/>
-    <hyperlink ref="J39" r:id="rId39" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3777902" xr:uid="{DFAF75D2-49B3-5946-A106-9F321A1525E8}"/>
-    <hyperlink ref="J3" r:id="rId40" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=2859307" xr:uid="{1DEA05AC-8B4F-4940-AA8A-F0088585271E}"/>
-    <hyperlink ref="J91" r:id="rId41" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5385394" xr:uid="{CB0261F2-006D-654F-835A-50172C465741}"/>
-    <hyperlink ref="J6" r:id="rId42" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3639657" xr:uid="{502D7EFD-5F29-844E-B655-8EF4966BCD8C}"/>
-    <hyperlink ref="J8" r:id="rId43" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3831488" xr:uid="{AAB82BDE-3AEC-6B44-8E12-25FA39E81031}"/>
-    <hyperlink ref="J9" r:id="rId44" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4376574" xr:uid="{375F3966-E84F-E548-A290-984AABC69F63}"/>
-    <hyperlink ref="J10" r:id="rId45" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4512762" xr:uid="{9A9B3801-12A7-464E-83CF-2ACCD71E7DBD}"/>
-    <hyperlink ref="J12" r:id="rId46" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4498620" xr:uid="{8D3E6662-203D-F844-A800-47C72449531A}"/>
-    <hyperlink ref="J11" r:id="rId47" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4438334" xr:uid="{B14877E0-4AC7-FF46-A08A-25B2760B7F98}"/>
-    <hyperlink ref="J14" r:id="rId48" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5555837" xr:uid="{7DD0FAA2-12CF-7641-B6DF-AC518CA9A287}"/>
-    <hyperlink ref="J15" r:id="rId49" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5546528" xr:uid="{877A11FF-FEC7-9342-AA74-9ABFC429282D}"/>
-    <hyperlink ref="J4" r:id="rId50" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=2860211" xr:uid="{402F1395-3B14-E24B-B51E-1697BED57329}"/>
-    <hyperlink ref="J5" r:id="rId51" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3717883" xr:uid="{11F49A2C-8B80-4E43-B22D-B348318BFD91}"/>
-    <hyperlink ref="J7" r:id="rId52" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3631970" xr:uid="{AF838A56-D1F3-514A-87B7-32956325C212}"/>
-    <hyperlink ref="J16" r:id="rId53" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5640382" xr:uid="{162038F4-F677-5649-B046-DF42EDAA55DC}"/>
-    <hyperlink ref="J17" r:id="rId54" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5641595" xr:uid="{280E4995-C1FD-D643-B5A4-FC35D1DB384E}"/>
-    <hyperlink ref="J18" r:id="rId55" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4856016" xr:uid="{DDC74A9C-6867-8349-947B-A3F546A15D07}"/>
-    <hyperlink ref="J19" r:id="rId56" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4860301" xr:uid="{7C0454BF-1E6B-3548-9210-91D0DF1818DF}"/>
-    <hyperlink ref="J20" r:id="rId57" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4856112" xr:uid="{41CA3387-2A54-BC4F-BA4F-4CB6B0A6B5FC}"/>
-    <hyperlink ref="J21" r:id="rId58" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5160182" xr:uid="{32617214-A428-154D-A751-334762F7580F}"/>
-    <hyperlink ref="J22" r:id="rId59" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5167886" xr:uid="{46B44A0E-ACC4-0B41-91CC-7D7744DBB32D}"/>
-    <hyperlink ref="J23" r:id="rId60" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5160187" xr:uid="{75F50075-8C40-B441-A1BC-C2BFF89EE286}"/>
-    <hyperlink ref="J24" r:id="rId61" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5685070" xr:uid="{5F636D6B-8F05-CB4F-9B08-C6F0034E91AB}"/>
-    <hyperlink ref="J25" r:id="rId62" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5685071" xr:uid="{70F3DC2C-19DC-C84C-B985-4179468A9517}"/>
-    <hyperlink ref="J26" r:id="rId63" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5753207" xr:uid="{E3E0BD06-6E3D-3244-A1FD-34FEB6194996}"/>
-    <hyperlink ref="J27" r:id="rId64" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5756142" xr:uid="{C0714E68-1DBF-B946-8F6C-8AAB1A442411}"/>
-    <hyperlink ref="J29" r:id="rId65" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4862039" xr:uid="{32955A79-A684-4047-9AC2-566DD5F719DF}"/>
-    <hyperlink ref="J51" r:id="rId66" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4582424" xr:uid="{99B76280-DAC4-274E-BEB1-C1E85A4AFED9}"/>
-    <hyperlink ref="J30" r:id="rId67" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4861977" xr:uid="{EA438A9B-C8F1-4A42-A4D8-6F0A4A18A849}"/>
-    <hyperlink ref="J31" r:id="rId68" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5088153" xr:uid="{C1B61592-74AC-43DA-90F1-90122A3A9F1B}"/>
-    <hyperlink ref="J32" r:id="rId69" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5764600" xr:uid="{CDAE0E91-14AA-4083-BAC6-581215610A50}"/>
-    <hyperlink ref="H3" r:id="rId70" display="https://www.joysound.com/web/search/song/46789" xr:uid="{18FC9DAF-B156-415C-8C9B-3FBE2740A62A}"/>
-    <hyperlink ref="H4" r:id="rId71" display="https://www.joysound.com/web/search/song/58792" xr:uid="{C6388BEA-6F96-46E9-B0B0-CF360BA6D9AC}"/>
-    <hyperlink ref="H5" r:id="rId72" display="https://www.joysound.com/web/search/song/58907" xr:uid="{FEAC0FF1-C9C2-4480-8970-8003BB6A13C7}"/>
-    <hyperlink ref="H6" r:id="rId73" display="https://www.joysound.com/web/search/song/72465" xr:uid="{EE9665AB-737E-4D64-8ED3-567274BF10D4}"/>
-    <hyperlink ref="H7" r:id="rId74" display="https://www.joysound.com/web/search/song/72407" xr:uid="{FF3F3B07-010F-421A-8512-0AA307492BC6}"/>
-    <hyperlink ref="H8" r:id="rId75" display="https://www.joysound.com/web/search/song/77843" xr:uid="{6AC15741-184D-4E16-B9F4-9A87AD5DD7E4}"/>
-    <hyperlink ref="H9" r:id="rId76" display="https://www.joysound.com/web/search/song/101217" xr:uid="{60A478C4-DB5E-486B-8612-9C11F4EA5B2E}"/>
-    <hyperlink ref="H10" r:id="rId77" display="https://www.joysound.com/web/search/song/106819" xr:uid="{3B3175EF-F8A3-4FBA-8A6B-EB22696C1ACC}"/>
-    <hyperlink ref="H11" r:id="rId78" display="https://www.joysound.com/web/search/song/103351" xr:uid="{08846DE8-0D83-4CA6-BF0B-893EB00AE03B}"/>
-    <hyperlink ref="H12" r:id="rId79" display="https://www.joysound.com/web/search/song/106457" xr:uid="{84C60B3B-1704-4B79-96E9-0DED42F6F9AE}"/>
-    <hyperlink ref="H13" r:id="rId80" display="https://www.joysound.com/web/search/song/109321" xr:uid="{E444C9E1-391A-45E4-BC96-C97D27DF0406}"/>
-    <hyperlink ref="H14" r:id="rId81" display="https://www.joysound.com/web/search/song/419962" xr:uid="{2B50DB64-3346-4E79-B197-6B8E92181ABF}"/>
-    <hyperlink ref="H15" r:id="rId82" display="https://www.joysound.com/web/search/song/419289" xr:uid="{17089D8C-22EE-4CDC-A60A-7D78779C8465}"/>
-    <hyperlink ref="H16" r:id="rId83" display="https://www.joysound.com/web/search/song/593642" xr:uid="{D6596C02-1BCC-44FF-A2E6-8F0B4FCA1487}"/>
-    <hyperlink ref="H17" r:id="rId84" display="https://www.joysound.com/web/search/song/593646" xr:uid="{6453760D-4C86-45FE-98A2-C465021DFE45}"/>
-    <hyperlink ref="H18" r:id="rId85" display="https://www.joysound.com/web/search/song/146556" xr:uid="{37D80BF7-1CEF-4654-A987-071D86866E59}"/>
-    <hyperlink ref="H19" r:id="rId86" display="https://www.joysound.com/web/search/song/147359" xr:uid="{154016AD-327F-4DE8-AD30-23B12BB0DF1D}"/>
-    <hyperlink ref="H20" r:id="rId87" display="https://www.joysound.com/web/search/song/146557" xr:uid="{66C17D20-84BD-4CA2-8AA0-8DDC10D00801}"/>
-    <hyperlink ref="H21" r:id="rId88" display="https://www.joysound.com/web/search/song/231845" xr:uid="{289B7633-635B-4B46-B8A5-6A14C0673508}"/>
-    <hyperlink ref="H22" r:id="rId89" display="https://www.joysound.com/web/search/song/232217" xr:uid="{B1E6BFC8-3161-4E07-83CB-8DCCFA0BB99F}"/>
-    <hyperlink ref="H23" r:id="rId90" display="https://www.joysound.com/web/search/song/231879" xr:uid="{6E7EB518-D735-4EB2-A4E3-375179B87621}"/>
-    <hyperlink ref="H24" r:id="rId91" display="https://www.joysound.com/web/search/song/631724" xr:uid="{9A72AC38-D7B4-479C-9858-F3C0CF726722}"/>
-    <hyperlink ref="H25" r:id="rId92" display="https://www.joysound.com/web/search/song/635267" xr:uid="{A3EE8D81-4966-4B2F-AB8A-EC749331A496}"/>
-    <hyperlink ref="H26" r:id="rId93" display="https://www.joysound.com/web/search/song/707174" xr:uid="{043184D1-9D7E-4182-9CB1-B1E25D6402C6}"/>
-    <hyperlink ref="H27" r:id="rId94" display="https://www.joysound.com/web/search/song/707175" xr:uid="{F2BCBDAD-99F8-4CED-9F05-EAA60B1F27EE}"/>
-    <hyperlink ref="H29" r:id="rId95" display="https://www.joysound.com/web/search/song/147208" xr:uid="{1FA7B7C6-F6FC-47AE-A561-A4C8D53DE8EF}"/>
-    <hyperlink ref="H30" r:id="rId96" display="https://www.joysound.com/web/search/song/149002" xr:uid="{32F114B0-D8C0-43D4-9294-02425215ADE0}"/>
-    <hyperlink ref="H31" r:id="rId97" display="https://www.joysound.com/web/search/song/185738" xr:uid="{64282A02-DAEB-4A82-ABF1-689D960D911C}"/>
-    <hyperlink ref="H32" r:id="rId98" display="https://www.joysound.com/web/search/song/223160" xr:uid="{84F232A9-69E4-498C-AC0E-B1ECB83F562A}"/>
-    <hyperlink ref="J13" r:id="rId99" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4623210" xr:uid="{AB9E8FB7-E5CA-46A1-876F-FC6E2DB5B617}"/>
+    <hyperlink ref="H3" r:id="rId38" display="https://www.joysound.com/web/search/song/46789" xr:uid="{18FC9DAF-B156-415C-8C9B-3FBE2740A62A}"/>
+    <hyperlink ref="H4" r:id="rId39" display="https://www.joysound.com/web/search/song/58792" xr:uid="{C6388BEA-6F96-46E9-B0B0-CF360BA6D9AC}"/>
+    <hyperlink ref="H5" r:id="rId40" display="https://www.joysound.com/web/search/song/58907" xr:uid="{FEAC0FF1-C9C2-4480-8970-8003BB6A13C7}"/>
+    <hyperlink ref="H6" r:id="rId41" display="https://www.joysound.com/web/search/song/72465" xr:uid="{EE9665AB-737E-4D64-8ED3-567274BF10D4}"/>
+    <hyperlink ref="H7" r:id="rId42" display="https://www.joysound.com/web/search/song/72407" xr:uid="{FF3F3B07-010F-421A-8512-0AA307492BC6}"/>
+    <hyperlink ref="H8" r:id="rId43" display="https://www.joysound.com/web/search/song/77843" xr:uid="{6AC15741-184D-4E16-B9F4-9A87AD5DD7E4}"/>
+    <hyperlink ref="H9" r:id="rId44" display="https://www.joysound.com/web/search/song/101217" xr:uid="{60A478C4-DB5E-486B-8612-9C11F4EA5B2E}"/>
+    <hyperlink ref="H10" r:id="rId45" display="https://www.joysound.com/web/search/song/106819" xr:uid="{3B3175EF-F8A3-4FBA-8A6B-EB22696C1ACC}"/>
+    <hyperlink ref="H11" r:id="rId46" display="https://www.joysound.com/web/search/song/103351" xr:uid="{08846DE8-0D83-4CA6-BF0B-893EB00AE03B}"/>
+    <hyperlink ref="H12" r:id="rId47" display="https://www.joysound.com/web/search/song/106457" xr:uid="{84C60B3B-1704-4B79-96E9-0DED42F6F9AE}"/>
+    <hyperlink ref="H13" r:id="rId48" display="https://www.joysound.com/web/search/song/109321" xr:uid="{E444C9E1-391A-45E4-BC96-C97D27DF0406}"/>
+    <hyperlink ref="H14" r:id="rId49" display="https://www.joysound.com/web/search/song/419962" xr:uid="{2B50DB64-3346-4E79-B197-6B8E92181ABF}"/>
+    <hyperlink ref="H15" r:id="rId50" display="https://www.joysound.com/web/search/song/419289" xr:uid="{17089D8C-22EE-4CDC-A60A-7D78779C8465}"/>
+    <hyperlink ref="H16" r:id="rId51" display="https://www.joysound.com/web/search/song/593642" xr:uid="{D6596C02-1BCC-44FF-A2E6-8F0B4FCA1487}"/>
+    <hyperlink ref="H17" r:id="rId52" display="https://www.joysound.com/web/search/song/593646" xr:uid="{6453760D-4C86-45FE-98A2-C465021DFE45}"/>
+    <hyperlink ref="H18" r:id="rId53" display="https://www.joysound.com/web/search/song/146556" xr:uid="{37D80BF7-1CEF-4654-A987-071D86866E59}"/>
+    <hyperlink ref="H19" r:id="rId54" display="https://www.joysound.com/web/search/song/147359" xr:uid="{154016AD-327F-4DE8-AD30-23B12BB0DF1D}"/>
+    <hyperlink ref="H20" r:id="rId55" display="https://www.joysound.com/web/search/song/146557" xr:uid="{66C17D20-84BD-4CA2-8AA0-8DDC10D00801}"/>
+    <hyperlink ref="H21" r:id="rId56" display="https://www.joysound.com/web/search/song/231845" xr:uid="{289B7633-635B-4B46-B8A5-6A14C0673508}"/>
+    <hyperlink ref="H22" r:id="rId57" display="https://www.joysound.com/web/search/song/232217" xr:uid="{B1E6BFC8-3161-4E07-83CB-8DCCFA0BB99F}"/>
+    <hyperlink ref="H23" r:id="rId58" display="https://www.joysound.com/web/search/song/231879" xr:uid="{6E7EB518-D735-4EB2-A4E3-375179B87621}"/>
+    <hyperlink ref="H24" r:id="rId59" display="https://www.joysound.com/web/search/song/631724" xr:uid="{9A72AC38-D7B4-479C-9858-F3C0CF726722}"/>
+    <hyperlink ref="H25" r:id="rId60" display="https://www.joysound.com/web/search/song/635267" xr:uid="{A3EE8D81-4966-4B2F-AB8A-EC749331A496}"/>
+    <hyperlink ref="H26" r:id="rId61" display="https://www.joysound.com/web/search/song/707174" xr:uid="{043184D1-9D7E-4182-9CB1-B1E25D6402C6}"/>
+    <hyperlink ref="H27" r:id="rId62" display="https://www.joysound.com/web/search/song/707175" xr:uid="{F2BCBDAD-99F8-4CED-9F05-EAA60B1F27EE}"/>
+    <hyperlink ref="H29" r:id="rId63" display="https://www.joysound.com/web/search/song/147208" xr:uid="{1FA7B7C6-F6FC-47AE-A561-A4C8D53DE8EF}"/>
+    <hyperlink ref="H30" r:id="rId64" display="https://www.joysound.com/web/search/song/149002" xr:uid="{32F114B0-D8C0-43D4-9294-02425215ADE0}"/>
+    <hyperlink ref="H31" r:id="rId65" display="https://www.joysound.com/web/search/song/185738" xr:uid="{64282A02-DAEB-4A82-ABF1-689D960D911C}"/>
+    <hyperlink ref="H32" r:id="rId66" display="https://www.joysound.com/web/search/song/223160" xr:uid="{84F232A9-69E4-498C-AC0E-B1ECB83F562A}"/>
+    <hyperlink ref="R36" r:id="rId67" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4563991" xr:uid="{27991F56-6973-ED46-B51D-AD074090000E}"/>
+    <hyperlink ref="R39" r:id="rId68" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3777902" xr:uid="{0085136C-4D34-C24F-AF18-985DA40E266B}"/>
+    <hyperlink ref="R3" r:id="rId69" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=2859307" xr:uid="{E95CF23B-154B-A146-BAFD-D5DD4ED81F56}"/>
+    <hyperlink ref="R91" r:id="rId70" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5385394" xr:uid="{0C067372-D6C9-4344-9E12-01FEF5D25225}"/>
+    <hyperlink ref="R6" r:id="rId71" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3639657" xr:uid="{8FC1962C-5BFB-1D4D-A58A-50778B1FB242}"/>
+    <hyperlink ref="R8" r:id="rId72" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3831488" xr:uid="{581DED7F-AC38-3B43-8E1E-1425B1D08D5E}"/>
+    <hyperlink ref="R9" r:id="rId73" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4376574" xr:uid="{46C0595F-FAF9-5646-B7C0-2F8105AAE7B7}"/>
+    <hyperlink ref="R10" r:id="rId74" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4512762" xr:uid="{1343C164-6C97-4646-88A6-C8F588646306}"/>
+    <hyperlink ref="R12" r:id="rId75" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4498620" xr:uid="{576FA0D8-EF2E-3842-A941-31DBF56D51FF}"/>
+    <hyperlink ref="R11" r:id="rId76" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4438334" xr:uid="{2005A875-EC83-C040-9CFE-3F44DB9594FF}"/>
+    <hyperlink ref="R14" r:id="rId77" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5555837" xr:uid="{491AB56D-0D17-AB47-9905-91EAB5631836}"/>
+    <hyperlink ref="R15" r:id="rId78" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5546528" xr:uid="{C877B447-35C3-924D-96FD-A2C73377AB7C}"/>
+    <hyperlink ref="R4" r:id="rId79" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=2860211" xr:uid="{88D995FC-1B1F-F040-9D54-25801C8896B4}"/>
+    <hyperlink ref="R5" r:id="rId80" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3717883" xr:uid="{2271E3AB-CEEB-6F44-A83E-5198F570B154}"/>
+    <hyperlink ref="R7" r:id="rId81" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=3631970" xr:uid="{BFDCE710-105D-2D42-83C9-5914672C9F52}"/>
+    <hyperlink ref="R16" r:id="rId82" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5640382" xr:uid="{59F2EE44-4D21-6149-8C18-A52C0F7527FD}"/>
+    <hyperlink ref="R17" r:id="rId83" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5641595" xr:uid="{09FFD4C4-AEA1-9C4A-872E-A4507CDFB244}"/>
+    <hyperlink ref="R18" r:id="rId84" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4856016" xr:uid="{7BD4595F-09B0-BA4F-A916-773BE5891912}"/>
+    <hyperlink ref="R19" r:id="rId85" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4860301" xr:uid="{31646A89-2560-1347-96B7-E2D56770836F}"/>
+    <hyperlink ref="R20" r:id="rId86" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4856112" xr:uid="{2EFD845C-B35F-9444-ADC1-F1BA6CA19652}"/>
+    <hyperlink ref="R21" r:id="rId87" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5160182" xr:uid="{4918B7CA-C534-FB41-B0EB-596334C51816}"/>
+    <hyperlink ref="R22" r:id="rId88" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5167886" xr:uid="{AEAE8C1B-3EE7-3B43-A37B-1F7704AA71CD}"/>
+    <hyperlink ref="R23" r:id="rId89" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5160187" xr:uid="{CB995D9E-A987-A543-8BCF-814914DC06A1}"/>
+    <hyperlink ref="R24" r:id="rId90" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5685070" xr:uid="{09454CD1-57F6-0841-B98E-6FC00175C3C1}"/>
+    <hyperlink ref="R25" r:id="rId91" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5685071" xr:uid="{D7ED86F1-0AEC-924F-9D30-E376804EE6D6}"/>
+    <hyperlink ref="R26" r:id="rId92" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5753207" xr:uid="{9D4B9FC4-9391-7543-9235-B9E096E5065F}"/>
+    <hyperlink ref="R27" r:id="rId93" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5756142" xr:uid="{44E2CBCA-23A5-A64B-A7CC-5B755E9F66E3}"/>
+    <hyperlink ref="R29" r:id="rId94" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4862039" xr:uid="{C1CC59A6-876C-7F4F-A81D-697A2F56BF92}"/>
+    <hyperlink ref="R51" r:id="rId95" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4582424" xr:uid="{93CB2A7F-6787-9F4D-B3A1-754D22E8D55A}"/>
+    <hyperlink ref="R30" r:id="rId96" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4861977" xr:uid="{05066B5E-B8B9-DF44-B676-CBDE688B2D67}"/>
+    <hyperlink ref="R31" r:id="rId97" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5088153" xr:uid="{FC3B06E0-9C51-214F-8702-9BF53F692D7F}"/>
+    <hyperlink ref="R32" r:id="rId98" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=5764600" xr:uid="{62D6CC37-4857-BB4E-9D38-12ED575CE663}"/>
+    <hyperlink ref="R13" r:id="rId99" display="https://www.clubdam.com/app/leaf/songKaraokeLeaf.html?contentsId=4623210" xr:uid="{974B5D43-60E9-1E4F-9877-D278AD97DBF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
